--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D6FE30-EA53-2446-9C33-172471593550}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5B08DE7F-58A9-A64E-9380-CE8BBF45A4FB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21160" windowWidth="25600" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -50,12 +50,18 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -65,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1585,35 +1591,55 @@
     <t>message</t>
   </si>
   <si>
+    <t>receive message</t>
+  </si>
+  <si>
+    <t>delete message</t>
+  </si>
+  <si>
+    <t>${message}.receiptHandle</t>
+  </si>
+  <si>
+    <t>All done</t>
+  </si>
+  <si>
+    <t>All done! :-)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>PauseBefore()</t>
+  </si>
+  <si>
     <t>${index} - received message
-BODY.         : ${message}.body
+ID            : ${message}.id
+BODY          : ${message}.body
 ATTRIBUTES.   : ${message}.[attributes]
 RECEIPT HANDLE: ${message}.receiptHandle</t>
   </si>
   <si>
-    <t>receive message</t>
-  </si>
-  <si>
-    <t>delete message</t>
-  </si>
-  <si>
-    <t>${message}.receiptHandle</t>
-  </si>
-  <si>
-    <t>All done</t>
-  </si>
-  <si>
-    <t>All done! :-)</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1690,8 +1716,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,8 +1837,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1749,148 +2029,478 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1924,7 +2534,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1949,10 +2559,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1987,7 +2597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2022,7 +2632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2116,21 +2726,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2147,7 +2757,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2199,26 +2809,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2917,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>370</v>
       </c>
@@ -2393,10 +3003,10 @@
         <v>431</v>
       </c>
       <c r="AC2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -2476,10 +3086,10 @@
         <v>183</v>
       </c>
       <c r="AC3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>485</v>
       </c>
@@ -2556,10 +3166,10 @@
         <v>423</v>
       </c>
       <c r="AC4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2624,10 +3234,10 @@
         <v>424</v>
       </c>
       <c r="AC5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2683,10 +3293,10 @@
         <v>425</v>
       </c>
       <c r="AC6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2739,10 +3349,10 @@
         <v>426</v>
       </c>
       <c r="AC7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2792,10 +3402,10 @@
         <v>427</v>
       </c>
       <c r="AC8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2836,10 +3446,10 @@
         <v>188</v>
       </c>
       <c r="AC9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -2874,10 +3484,10 @@
         <v>189</v>
       </c>
       <c r="AC10" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2909,10 +3519,10 @@
         <v>258</v>
       </c>
       <c r="AC11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>332</v>
       </c>
@@ -2944,10 +3554,10 @@
         <v>190</v>
       </c>
       <c r="AC12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2979,10 +3589,10 @@
         <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>475</v>
       </c>
@@ -3013,8 +3623,11 @@
       <c r="AA14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -3042,8 +3655,11 @@
       <c r="AA15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3068,8 +3684,11 @@
       <c r="AA16" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -3088,8 +3707,11 @@
       <c r="AA17" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -3105,8 +3727,11 @@
       <c r="X18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -3123,7 +3748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>411</v>
       </c>
@@ -3140,7 +3765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -3157,7 +3782,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>356</v>
       </c>
@@ -3174,7 +3799,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -3191,7 +3816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -3208,7 +3833,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +3850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3239,7 +3864,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3253,7 +3878,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>413</v>
       </c>
@@ -3267,7 +3892,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -3281,7 +3906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>415</v>
       </c>
@@ -3292,7 +3917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>64</v>
       </c>
@@ -3303,7 +3928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>65</v>
       </c>
@@ -3314,7 +3939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>66</v>
       </c>
@@ -3325,7 +3950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>67</v>
       </c>
@@ -3336,7 +3961,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>68</v>
       </c>
@@ -3347,7 +3972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>69</v>
       </c>
@@ -3358,7 +3983,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>70</v>
       </c>
@@ -3369,7 +3994,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>71</v>
       </c>
@@ -3380,7 +4005,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>78</v>
       </c>
@@ -3388,7 +4013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>211</v>
       </c>
@@ -3396,7 +4021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>288</v>
       </c>
@@ -3404,7 +4029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>299</v>
       </c>
@@ -3412,7 +4037,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>300</v>
       </c>
@@ -3420,7 +4045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>342</v>
       </c>
@@ -3428,7 +4053,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>341</v>
       </c>
@@ -3436,7 +4061,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>210</v>
       </c>
@@ -3444,7 +4069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>319</v>
       </c>
@@ -3452,7 +4077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>338</v>
       </c>
@@ -3460,7 +4085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>367</v>
       </c>
@@ -3468,7 +4093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>301</v>
       </c>
@@ -3476,7 +4101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>355</v>
       </c>
@@ -3484,7 +4109,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>330</v>
       </c>
@@ -3492,7 +4117,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>267</v>
       </c>
@@ -3500,7 +4125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>291</v>
       </c>
@@ -3508,7 +4133,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>292</v>
       </c>
@@ -3516,7 +4141,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>293</v>
       </c>
@@ -3524,7 +4149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>302</v>
       </c>
@@ -3532,7 +4157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>311</v>
       </c>
@@ -3540,7 +4165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>336</v>
       </c>
@@ -3548,7 +4173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>308</v>
       </c>
@@ -3556,7 +4181,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>309</v>
       </c>
@@ -3564,7 +4189,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>368</v>
       </c>
@@ -3572,7 +4197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>369</v>
       </c>
@@ -3580,7 +4205,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>344</v>
       </c>
@@ -3588,7 +4213,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>312</v>
       </c>
@@ -3596,7 +4221,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>268</v>
       </c>
@@ -3604,7 +4229,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>352</v>
       </c>
@@ -3612,7 +4237,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>313</v>
       </c>
@@ -3620,7 +4245,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>409</v>
       </c>
@@ -3628,7 +4253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>303</v>
       </c>
@@ -3636,7 +4261,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>410</v>
       </c>
@@ -3644,7 +4269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>261</v>
       </c>
@@ -3652,7 +4277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>343</v>
       </c>
@@ -3660,7 +4285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>279</v>
       </c>
@@ -3668,7 +4293,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>285</v>
       </c>
@@ -3676,7 +4301,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>290</v>
       </c>
@@ -3684,7 +4309,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>428</v>
       </c>
@@ -3692,7 +4317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>331</v>
       </c>
@@ -3700,7 +4325,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>269</v>
       </c>
@@ -3708,7 +4333,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>280</v>
       </c>
@@ -3716,7 +4341,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>286</v>
       </c>
@@ -3724,7 +4349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>275</v>
       </c>
@@ -3732,7 +4357,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>270</v>
       </c>
@@ -3740,7 +4365,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>287</v>
       </c>
@@ -3748,7 +4373,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>271</v>
       </c>
@@ -3756,7 +4381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>272</v>
       </c>
@@ -3764,7 +4389,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>304</v>
       </c>
@@ -3772,7 +4397,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>310</v>
       </c>
@@ -3780,7 +4405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>294</v>
       </c>
@@ -3788,7 +4413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>339</v>
       </c>
@@ -3796,7 +4421,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>276</v>
       </c>
@@ -3804,7 +4429,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>277</v>
       </c>
@@ -3812,189 +4437,189 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="X93" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="X94" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="X95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="X96" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="X97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="X98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="X99" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="X100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="X101" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="X102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="X103" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="X104" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="X105" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="X106" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="X107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="X108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="X109" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="X110" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="X111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="X112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="X113" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="X114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="X115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="X116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="X117" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="X118" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="X119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="X120" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="X121" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="X122" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="28.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="29.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="14.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="44.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="42.1640625" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" style="10" width="28.1640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4650,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
@@ -4046,7 +4671,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4063,7 +4688,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>220</v>
       </c>
@@ -4108,7 +4733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>484</v>
       </c>
@@ -4135,7 +4760,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4160,7 +4785,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4185,7 +4810,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4210,7 +4835,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4239,7 +4864,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4262,7 +4887,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4287,7 +4912,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>504</v>
       </c>
@@ -4307,14 +4932,16 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>512</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
       <c r="M12" s="12"/>
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -4324,7 +4951,7 @@
         <v>320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>498</v>
@@ -4339,7 +4966,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4364,10 +4991,10 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>485</v>
@@ -4393,7 +5020,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row ht="80" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4403,7 +5030,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -4416,10 +5043,10 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>485</v>
@@ -4434,7 +5061,7 @@
         <v>491</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -4445,7 +5072,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -4470,9 +5097,9 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -4482,7 +5109,7 @@
         <v>70</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -4495,7 +5122,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4512,7 +5139,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4529,7 +5156,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4546,7 +5173,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4563,7 +5190,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4580,7 +5207,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="8"/>
       <c r="C25" s="13"/>
@@ -4597,7 +5224,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4614,7 +5241,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4631,7 +5258,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -4648,7 +5275,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4665,7 +5292,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4682,7 +5309,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4699,7 +5326,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4716,7 +5343,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4733,7 +5360,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4750,7 +5377,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4767,7 +5394,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4784,7 +5411,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4801,7 +5428,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4818,7 +5445,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4835,7 +5462,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4852,7 +5479,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4869,7 +5496,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4886,7 +5513,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4903,7 +5530,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4920,7 +5547,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4937,7 +5564,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4954,7 +5581,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4971,7 +5598,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4988,7 +5615,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5005,7 +5632,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5022,7 +5649,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5039,7 +5666,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5056,7 +5683,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5073,7 +5700,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5090,7 +5717,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5107,7 +5734,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5124,7 +5751,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5141,7 +5768,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5158,7 +5785,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5175,7 +5802,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5192,7 +5819,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5209,7 +5836,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5226,7 +5853,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5243,7 +5870,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5260,7 +5887,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5277,7 +5904,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5294,7 +5921,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5311,7 +5938,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5328,7 +5955,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5345,7 +5972,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5362,7 +5989,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5379,7 +6006,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5396,7 +6023,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5413,7 +6040,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5430,7 +6057,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5447,7 +6074,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5464,7 +6091,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5481,7 +6108,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5498,7 +6125,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5515,7 +6142,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5532,7 +6159,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5549,7 +6176,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5566,7 +6193,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5583,7 +6210,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5600,7 +6227,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5617,7 +6244,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5634,7 +6261,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5651,7 +6278,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5668,7 +6295,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5685,7 +6312,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5702,7 +6329,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5719,7 +6346,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5736,7 +6363,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5753,7 +6380,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5770,7 +6397,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5787,7 +6414,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5804,7 +6431,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5821,7 +6448,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5838,7 +6465,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5855,7 +6482,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5872,7 +6499,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5889,7 +6516,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5906,7 +6533,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5923,7 +6550,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5940,7 +6567,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5957,7 +6584,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5974,7 +6601,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5991,7 +6618,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6008,7 +6635,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6025,7 +6652,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6042,7 +6669,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6059,7 +6686,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6076,7 +6703,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6093,7 +6720,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6110,7 +6737,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6127,7 +6754,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6144,7 +6771,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6161,7 +6788,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6178,7 +6805,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6195,7 +6822,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6212,7 +6839,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6229,7 +6856,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6246,7 +6873,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6263,7 +6890,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6280,7 +6907,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6297,7 +6924,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6314,7 +6941,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6331,7 +6958,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6348,7 +6975,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6365,7 +6992,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6382,7 +7009,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6399,7 +7026,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6416,7 +7043,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6433,7 +7060,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6450,7 +7077,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6467,7 +7094,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6484,7 +7111,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6501,7 +7128,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6518,7 +7145,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6535,7 +7162,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6552,7 +7179,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6569,7 +7196,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6586,7 +7213,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6603,7 +7230,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6620,7 +7247,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6637,7 +7264,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6654,7 +7281,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6671,7 +7298,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6688,7 +7315,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6705,7 +7332,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6722,7 +7349,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6739,7 +7366,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6756,7 +7383,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6773,7 +7400,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6790,7 +7417,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6807,7 +7434,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6824,7 +7451,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6841,7 +7468,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6858,7 +7485,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6875,7 +7502,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6892,7 +7519,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6909,7 +7536,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6926,7 +7553,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6943,7 +7570,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6960,7 +7587,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6977,7 +7604,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6994,7 +7621,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7011,7 +7638,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7028,7 +7655,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7045,7 +7672,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7062,7 +7689,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7079,7 +7706,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7096,7 +7723,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7113,7 +7740,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7130,7 +7757,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7147,7 +7774,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7164,7 +7791,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7181,7 +7808,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7198,7 +7825,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7215,7 +7842,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7232,7 +7859,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7249,7 +7876,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7266,7 +7893,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7283,7 +7910,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7300,7 +7927,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7317,7 +7944,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7334,7 +7961,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7351,7 +7978,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7368,7 +7995,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7385,7 +8012,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7402,7 +8029,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7419,7 +8046,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7436,7 +8063,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7453,7 +8080,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7470,7 +8097,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7487,7 +8114,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7504,7 +8131,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7521,7 +8148,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7538,7 +8165,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7555,7 +8182,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7572,7 +8199,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7589,7 +8216,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7606,7 +8233,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7623,7 +8250,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7640,7 +8267,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7657,7 +8284,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7674,7 +8301,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7691,7 +8318,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7708,7 +8335,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7725,7 +8352,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7742,7 +8369,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7759,7 +8386,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7776,7 +8403,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7793,7 +8420,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7810,7 +8437,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7827,7 +8454,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7844,7 +8471,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7861,7 +8488,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7878,7 +8505,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7895,7 +8522,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7912,7 +8539,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7929,7 +8556,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7946,7 +8573,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7963,7 +8590,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7980,7 +8607,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7997,7 +8624,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8014,7 +8641,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8031,7 +8658,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8048,7 +8675,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8065,7 +8692,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8082,7 +8709,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8099,7 +8726,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8116,7 +8743,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8133,7 +8760,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8150,7 +8777,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8167,7 +8794,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8184,7 +8811,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8201,7 +8828,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8218,7 +8845,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8235,7 +8862,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8252,7 +8879,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8269,7 +8896,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8286,7 +8913,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8303,7 +8930,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8320,7 +8947,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8337,7 +8964,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8354,7 +8981,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8371,7 +8998,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8388,7 +9015,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8405,7 +9032,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8422,7 +9049,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8439,7 +9066,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8456,7 +9083,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8473,7 +9100,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8490,7 +9117,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8507,7 +9134,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8524,7 +9151,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8541,7 +9168,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8558,7 +9185,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8575,7 +9202,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8592,7 +9219,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8609,7 +9236,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8626,7 +9253,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8643,7 +9270,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8660,7 +9287,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8677,7 +9304,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8694,7 +9321,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8711,7 +9338,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8728,7 +9355,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8745,7 +9372,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8762,7 +9389,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8779,7 +9406,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8796,7 +9423,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8813,7 +9440,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8830,7 +9457,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8847,7 +9474,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8864,7 +9491,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8881,7 +9508,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8898,7 +9525,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8915,7 +9542,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8932,7 +9559,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8949,7 +9576,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8966,7 +9593,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8983,7 +9610,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9000,7 +9627,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9017,7 +9644,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9034,7 +9661,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9051,7 +9678,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9068,7 +9695,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9085,7 +9712,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9102,7 +9729,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9119,7 +9746,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9136,7 +9763,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9153,7 +9780,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9170,7 +9797,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9187,7 +9814,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9204,7 +9831,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9221,7 +9848,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9238,7 +9865,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9255,7 +9882,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9272,7 +9899,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9289,7 +9916,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9306,7 +9933,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9323,7 +9950,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9340,7 +9967,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9357,7 +9984,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9374,7 +10001,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9391,7 +10018,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9408,7 +10035,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9425,7 +10052,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9442,7 +10069,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9459,7 +10086,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9476,7 +10103,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9493,7 +10120,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9510,7 +10137,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9527,7 +10154,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9544,7 +10171,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9561,7 +10188,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9578,7 +10205,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9595,7 +10222,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9612,7 +10239,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9629,7 +10256,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9646,7 +10273,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9663,7 +10290,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9680,7 +10307,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9697,7 +10324,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9714,7 +10341,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9731,7 +10358,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9748,7 +10375,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9765,7 +10392,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9782,7 +10409,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9799,7 +10426,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9816,7 +10443,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9833,7 +10460,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9850,7 +10477,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9867,7 +10494,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9884,7 +10511,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9901,7 +10528,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9918,7 +10545,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9935,7 +10562,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9952,7 +10579,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9969,7 +10596,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9986,7 +10613,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -10003,7 +10630,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10020,7 +10647,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10037,7 +10664,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10054,7 +10681,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10071,7 +10698,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10088,7 +10715,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10105,7 +10732,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10122,7 +10749,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10139,7 +10766,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10156,7 +10783,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10173,7 +10800,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10190,7 +10817,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10207,7 +10834,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10224,7 +10851,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10241,7 +10868,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10258,7 +10885,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10275,7 +10902,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10292,7 +10919,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10309,7 +10936,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10326,7 +10953,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10343,7 +10970,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10360,7 +10987,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10377,7 +11004,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10394,7 +11021,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10411,7 +11038,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10428,7 +11055,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10445,7 +11072,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10462,7 +11089,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10479,7 +11106,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10496,7 +11123,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10513,7 +11140,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10530,7 +11157,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10547,7 +11174,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10564,7 +11191,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10581,7 +11208,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10598,7 +11225,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10615,7 +11242,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10632,7 +11259,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10649,7 +11276,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10666,7 +11293,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10683,7 +11310,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10700,7 +11327,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10717,7 +11344,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10734,7 +11361,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10751,7 +11378,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10768,7 +11395,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10785,7 +11412,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10802,7 +11429,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10819,7 +11446,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10836,7 +11463,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10853,7 +11480,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10870,7 +11497,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10887,7 +11514,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10904,7 +11531,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10921,7 +11548,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10938,7 +11565,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10955,7 +11582,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10972,7 +11599,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10989,7 +11616,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11006,7 +11633,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11023,7 +11650,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11040,7 +11667,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11057,7 +11684,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11074,7 +11701,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11091,7 +11718,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11108,7 +11735,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11125,7 +11752,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11142,7 +11769,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11159,7 +11786,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11176,7 +11803,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11193,7 +11820,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11210,7 +11837,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11227,7 +11854,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11244,7 +11871,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11261,7 +11888,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11278,7 +11905,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11295,7 +11922,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11312,7 +11939,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11329,7 +11956,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11346,7 +11973,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11363,7 +11990,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11380,7 +12007,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11397,7 +12024,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11414,7 +12041,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11431,7 +12058,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11448,7 +12075,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11465,7 +12092,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11482,7 +12109,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11499,7 +12126,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11516,7 +12143,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11533,7 +12160,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11550,7 +12177,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11567,7 +12194,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11584,7 +12211,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11601,7 +12228,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11618,7 +12245,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11635,7 +12262,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11652,7 +12279,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11669,7 +12296,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11686,7 +12313,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11703,7 +12330,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11720,7 +12347,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11737,7 +12364,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11754,7 +12381,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11771,7 +12398,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11788,7 +12415,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11805,7 +12432,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11822,7 +12449,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11839,7 +12466,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11856,7 +12483,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11873,7 +12500,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11890,7 +12517,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11907,7 +12534,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11924,7 +12551,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11941,7 +12568,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11958,7 +12585,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11975,7 +12602,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11992,7 +12619,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12009,7 +12636,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12026,7 +12653,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12043,7 +12670,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12060,7 +12687,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12077,7 +12704,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12094,7 +12721,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12111,7 +12738,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12128,7 +12755,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12145,7 +12772,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12162,7 +12789,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12179,7 +12806,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12196,7 +12823,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12213,7 +12840,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12230,7 +12857,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12247,7 +12874,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12264,7 +12891,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12281,7 +12908,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12298,7 +12925,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12315,7 +12942,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12332,7 +12959,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12349,7 +12976,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12366,7 +12993,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12383,7 +13010,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12400,7 +13027,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12417,7 +13044,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12434,7 +13061,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12451,7 +13078,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12468,7 +13095,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12485,7 +13112,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12502,7 +13129,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12519,7 +13146,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12536,7 +13163,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12553,7 +13180,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12570,7 +13197,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12587,7 +13214,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12604,7 +13231,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12621,7 +13248,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12638,7 +13265,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12655,7 +13282,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12672,7 +13299,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12689,7 +13316,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12706,7 +13333,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12723,7 +13350,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12740,7 +13367,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12757,7 +13384,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12774,7 +13401,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12791,7 +13418,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12808,7 +13435,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12825,7 +13452,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12842,7 +13469,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12859,7 +13486,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12876,7 +13503,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12893,7 +13520,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12910,7 +13537,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12927,7 +13554,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12944,7 +13571,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12961,7 +13588,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12978,7 +13605,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12995,7 +13622,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13012,7 +13639,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13029,7 +13656,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13046,7 +13673,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13063,7 +13690,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13080,7 +13707,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13097,7 +13724,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13114,7 +13741,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13131,7 +13758,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13148,7 +13775,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13165,7 +13792,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13182,7 +13809,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13199,7 +13826,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13216,7 +13843,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13233,7 +13860,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13250,7 +13877,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13267,7 +13894,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13284,7 +13911,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13301,7 +13928,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13318,7 +13945,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13335,7 +13962,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13352,7 +13979,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13369,7 +13996,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13386,7 +14013,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13403,7 +14030,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13420,7 +14047,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13437,7 +14064,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13454,7 +14081,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13471,7 +14098,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13488,7 +14115,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13505,7 +14132,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13522,7 +14149,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13539,7 +14166,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13556,7 +14183,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13573,7 +14200,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13590,7 +14217,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13607,7 +14234,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13624,7 +14251,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13641,7 +14268,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13658,7 +14285,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13675,7 +14302,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13692,7 +14319,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13709,7 +14336,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13726,7 +14353,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13743,7 +14370,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13760,7 +14387,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13777,7 +14404,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13794,7 +14421,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13811,7 +14438,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13828,7 +14455,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13845,7 +14472,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13862,7 +14489,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13879,7 +14506,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13896,7 +14523,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13913,7 +14540,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13930,7 +14557,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13947,7 +14574,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13964,7 +14591,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13981,7 +14608,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13998,7 +14625,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14015,7 +14642,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14032,7 +14659,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14049,7 +14676,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14066,7 +14693,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14083,7 +14710,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14100,7 +14727,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14117,7 +14744,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14134,7 +14761,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14151,7 +14778,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14168,7 +14795,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14185,7 +14812,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14202,7 +14829,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14219,7 +14846,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14236,7 +14863,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14253,7 +14880,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14270,7 +14897,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14287,7 +14914,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14304,7 +14931,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14321,7 +14948,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14338,7 +14965,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14355,7 +14982,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14372,7 +14999,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14389,7 +15016,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14406,7 +15033,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14423,7 +15050,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14440,7 +15067,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14457,7 +15084,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14474,7 +15101,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14491,7 +15118,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14508,7 +15135,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14525,7 +15152,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14542,7 +15169,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14559,7 +15186,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14576,7 +15203,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14593,7 +15220,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14610,7 +15237,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14627,7 +15254,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14644,7 +15271,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14661,7 +15288,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14678,7 +15305,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14695,7 +15322,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14712,7 +15339,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14729,7 +15356,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14746,7 +15373,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14763,7 +15390,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14780,7 +15407,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14797,7 +15424,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14814,7 +15441,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14831,7 +15458,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14848,7 +15475,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14865,7 +15492,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14882,7 +15509,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14899,7 +15526,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14916,7 +15543,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14933,7 +15560,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14950,7 +15577,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14967,7 +15594,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14984,7 +15611,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -15001,7 +15628,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -15018,7 +15645,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -15035,7 +15662,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -15052,7 +15679,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -15069,7 +15696,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -15086,7 +15713,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -15103,7 +15730,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -15120,7 +15747,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -15137,360 +15764,360 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15498,24 +16125,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D695" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D695" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C697" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C697" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{5B08DE7F-58A9-A64E-9380-CE8BBF45A4FB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="25160" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="25160" windowWidth="27300" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1632,6 +1632,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1817,8 +1829,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1990,8 +2103,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2311,6 +2577,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2318,7 +2866,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,52 +2995,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2817,9 +3413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3589,7 +4185,7 @@
         <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14">
@@ -3624,7 +4220,7 @@
         <v>192</v>
       </c>
       <c r="AC14" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15">
@@ -3656,7 +4252,7 @@
         <v>193</v>
       </c>
       <c r="AC15" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16">
@@ -3685,7 +4281,7 @@
         <v>194</v>
       </c>
       <c r="AC16" t="s">
-        <v>234</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17">
@@ -3708,7 +4304,7 @@
         <v>466</v>
       </c>
       <c r="AC17" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18">
@@ -3728,7 +4324,7 @@
         <v>106</v>
       </c>
       <c r="AC18" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19">
@@ -3747,6 +4343,9 @@
       <c r="X19" t="s">
         <v>107</v>
       </c>
+      <c r="AC19" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3764,6 +4363,9 @@
       <c r="X20" t="s">
         <v>108</v>
       </c>
+      <c r="AC20" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3781,6 +4383,9 @@
       <c r="X21" t="s">
         <v>481</v>
       </c>
+      <c r="AC21" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4330,7 +4935,7 @@
         <v>269</v>
       </c>
       <c r="X79" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80">
@@ -4338,7 +4943,7 @@
         <v>280</v>
       </c>
       <c r="X80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -4346,7 +4951,7 @@
         <v>286</v>
       </c>
       <c r="X81" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -4354,7 +4959,7 @@
         <v>275</v>
       </c>
       <c r="X82" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83">
@@ -4362,7 +4967,7 @@
         <v>270</v>
       </c>
       <c r="X83" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84">
@@ -4370,7 +4975,7 @@
         <v>287</v>
       </c>
       <c r="X84" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85">
@@ -4378,7 +4983,7 @@
         <v>271</v>
       </c>
       <c r="X85" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86">
@@ -4386,7 +4991,7 @@
         <v>272</v>
       </c>
       <c r="X86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -4394,7 +4999,7 @@
         <v>304</v>
       </c>
       <c r="X87" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
@@ -4402,7 +5007,7 @@
         <v>310</v>
       </c>
       <c r="X88" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -4410,7 +5015,7 @@
         <v>294</v>
       </c>
       <c r="X89" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
@@ -4418,7 +5023,7 @@
         <v>339</v>
       </c>
       <c r="X90" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -4426,7 +5031,7 @@
         <v>276</v>
       </c>
       <c r="X91" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92">
@@ -4434,156 +5039,161 @@
         <v>277</v>
       </c>
       <c r="X92" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -36,7 +36,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1644,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1930,8 +1939,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2256,8 +2467,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -2859,6 +3376,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2866,7 +3947,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3043,52 +4124,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3413,7 +4590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4240,7 +5417,7 @@
         <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>523</v>
       </c>
       <c r="Q15" t="s">
         <v>250</v>
@@ -4271,6 +5448,9 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
+      <c r="P16" t="s">
+        <v>524</v>
+      </c>
       <c r="Q16" t="s">
         <v>251</v>
       </c>
@@ -4298,7 +5478,7 @@
         <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>105</v>
+        <v>525</v>
       </c>
       <c r="AA17" t="s">
         <v>466</v>
@@ -4321,7 +5501,7 @@
         <v>379</v>
       </c>
       <c r="X18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC18" t="s">
         <v>522</v>
@@ -4341,7 +5521,7 @@
         <v>469</v>
       </c>
       <c r="X19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC19" t="s">
         <v>234</v>
@@ -4361,7 +5541,7 @@
         <v>43</v>
       </c>
       <c r="X20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC20" t="s">
         <v>235</v>
@@ -4381,7 +5561,7 @@
         <v>391</v>
       </c>
       <c r="X21" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="AC21" t="s">
         <v>236</v>
@@ -4401,7 +5581,7 @@
         <v>85</v>
       </c>
       <c r="X22" t="s">
-        <v>109</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23">
@@ -4418,7 +5598,7 @@
         <v>433</v>
       </c>
       <c r="X23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -4435,7 +5615,7 @@
         <v>44</v>
       </c>
       <c r="X24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -4452,7 +5632,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
@@ -4466,7 +5646,7 @@
         <v>281</v>
       </c>
       <c r="X26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -4480,7 +5660,7 @@
         <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -4494,7 +5674,7 @@
         <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
@@ -4508,7 +5688,7 @@
         <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -4519,7 +5699,7 @@
         <v>215</v>
       </c>
       <c r="X30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -4530,7 +5710,7 @@
         <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -4541,7 +5721,7 @@
         <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -4552,7 +5732,7 @@
         <v>259</v>
       </c>
       <c r="X33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -4563,7 +5743,7 @@
         <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -4574,7 +5754,7 @@
         <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
@@ -4585,7 +5765,7 @@
         <v>260</v>
       </c>
       <c r="X36" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -4596,7 +5776,7 @@
         <v>307</v>
       </c>
       <c r="X37" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
@@ -4607,7 +5787,7 @@
         <v>266</v>
       </c>
       <c r="X38" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39">
@@ -4615,7 +5795,7 @@
         <v>78</v>
       </c>
       <c r="X39" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40">
@@ -4623,7 +5803,7 @@
         <v>211</v>
       </c>
       <c r="X40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -4631,7 +5811,7 @@
         <v>288</v>
       </c>
       <c r="X41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -4639,7 +5819,7 @@
         <v>299</v>
       </c>
       <c r="X42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -4647,7 +5827,7 @@
         <v>300</v>
       </c>
       <c r="X43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -4655,7 +5835,7 @@
         <v>342</v>
       </c>
       <c r="X44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -4663,7 +5843,7 @@
         <v>341</v>
       </c>
       <c r="X45" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -4671,7 +5851,7 @@
         <v>210</v>
       </c>
       <c r="X46" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47">
@@ -4679,7 +5859,7 @@
         <v>319</v>
       </c>
       <c r="X47" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
@@ -4687,7 +5867,7 @@
         <v>338</v>
       </c>
       <c r="X48" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -4695,7 +5875,7 @@
         <v>367</v>
       </c>
       <c r="X49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -4703,7 +5883,7 @@
         <v>301</v>
       </c>
       <c r="X50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -4711,7 +5891,7 @@
         <v>355</v>
       </c>
       <c r="X51" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -4719,7 +5899,7 @@
         <v>330</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53">
@@ -4727,7 +5907,7 @@
         <v>267</v>
       </c>
       <c r="X53" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
@@ -4735,7 +5915,7 @@
         <v>291</v>
       </c>
       <c r="X54" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -4743,7 +5923,7 @@
         <v>292</v>
       </c>
       <c r="X55" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56">
@@ -4751,7 +5931,7 @@
         <v>293</v>
       </c>
       <c r="X56" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57">
@@ -4759,7 +5939,7 @@
         <v>302</v>
       </c>
       <c r="X57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
@@ -4767,7 +5947,7 @@
         <v>311</v>
       </c>
       <c r="X58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -4775,7 +5955,7 @@
         <v>336</v>
       </c>
       <c r="X59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -4783,7 +5963,7 @@
         <v>308</v>
       </c>
       <c r="X60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -4791,7 +5971,7 @@
         <v>309</v>
       </c>
       <c r="X61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -4799,7 +5979,7 @@
         <v>368</v>
       </c>
       <c r="X62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -4807,7 +5987,7 @@
         <v>369</v>
       </c>
       <c r="X63" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -4815,7 +5995,7 @@
         <v>344</v>
       </c>
       <c r="X64" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -4823,7 +6003,7 @@
         <v>312</v>
       </c>
       <c r="X65" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66">
@@ -4831,7 +6011,7 @@
         <v>268</v>
       </c>
       <c r="X66" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67">
@@ -4839,7 +6019,7 @@
         <v>352</v>
       </c>
       <c r="X67" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68">
@@ -4847,7 +6027,7 @@
         <v>313</v>
       </c>
       <c r="X68" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69">
@@ -4855,7 +6035,7 @@
         <v>409</v>
       </c>
       <c r="X69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
@@ -4863,7 +6043,7 @@
         <v>303</v>
       </c>
       <c r="X70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
@@ -4871,7 +6051,7 @@
         <v>410</v>
       </c>
       <c r="X71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -4879,7 +6059,7 @@
         <v>261</v>
       </c>
       <c r="X72" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -4887,7 +6067,7 @@
         <v>343</v>
       </c>
       <c r="X73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
@@ -4895,7 +6075,7 @@
         <v>279</v>
       </c>
       <c r="X74" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75">
@@ -4903,7 +6083,7 @@
         <v>285</v>
       </c>
       <c r="X75" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76">
@@ -4911,7 +6091,7 @@
         <v>290</v>
       </c>
       <c r="X76" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77">
@@ -4919,7 +6099,7 @@
         <v>428</v>
       </c>
       <c r="X77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
@@ -4927,7 +6107,7 @@
         <v>331</v>
       </c>
       <c r="X78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
@@ -4935,7 +6115,7 @@
         <v>269</v>
       </c>
       <c r="X79" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -4943,7 +6123,7 @@
         <v>280</v>
       </c>
       <c r="X80" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81">
@@ -4951,7 +6131,7 @@
         <v>286</v>
       </c>
       <c r="X81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
@@ -4959,7 +6139,7 @@
         <v>275</v>
       </c>
       <c r="X82" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
@@ -4967,7 +6147,7 @@
         <v>270</v>
       </c>
       <c r="X83" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84">
@@ -4975,7 +6155,7 @@
         <v>287</v>
       </c>
       <c r="X84" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85">
@@ -4983,7 +6163,7 @@
         <v>271</v>
       </c>
       <c r="X85" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -4991,7 +6171,7 @@
         <v>272</v>
       </c>
       <c r="X86" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87">
@@ -4999,7 +6179,7 @@
         <v>304</v>
       </c>
       <c r="X87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -5007,7 +6187,7 @@
         <v>310</v>
       </c>
       <c r="X88" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -5015,7 +6195,7 @@
         <v>294</v>
       </c>
       <c r="X89" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90">
@@ -5023,7 +6203,7 @@
         <v>339</v>
       </c>
       <c r="X90" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
@@ -5031,7 +6211,7 @@
         <v>276</v>
       </c>
       <c r="X91" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -5039,161 +6219,166 @@
         <v>277</v>
       </c>
       <c r="X92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1653,6 +1653,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1663,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2141,8 +2144,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2773,8 +2978,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3940,6 +4451,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3947,7 +5022,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4220,52 +5295,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4590,7 +5761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6259,126 +7430,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>148</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -21,14 +21,14 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1656,6 +1656,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2346,8 +2358,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3284,8 +3397,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5015,6 +5281,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5022,7 +5570,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5391,52 +5939,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6191,6 +6787,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>527</v>
+      </c>
       <c r="G6" t="s">
         <v>387</v>
       </c>
@@ -6313,7 +6912,7 @@
         <v>327</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="M8" t="s">
         <v>33</v>
@@ -6366,7 +6965,7 @@
         <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
@@ -6407,7 +7006,7 @@
         <v>451</v>
       </c>
       <c r="K10" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
@@ -6445,7 +7044,7 @@
         <v>321</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>529</v>
       </c>
       <c r="M11" t="s">
         <v>470</v>
@@ -6480,7 +7079,7 @@
         <v>322</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="M12" t="s">
         <v>435</v>
@@ -6515,7 +7114,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>471</v>
@@ -6550,7 +7149,7 @@
         <v>324</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
@@ -6582,7 +7181,7 @@
         <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="M15" t="s">
         <v>39</v>
@@ -6614,7 +7213,7 @@
         <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
@@ -6646,7 +7245,7 @@
         <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s">
         <v>525</v>
@@ -6669,7 +7268,7 @@
         <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="X18" t="s">
         <v>105</v>
@@ -6689,7 +7288,7 @@
         <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
         <v>106</v>
@@ -6709,7 +7308,7 @@
         <v>296</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
         <v>107</v>
@@ -6729,7 +7328,7 @@
         <v>297</v>
       </c>
       <c r="K21" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="X21" t="s">
         <v>108</v>
@@ -6749,7 +7348,7 @@
         <v>298</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>469</v>
       </c>
       <c r="X22" t="s">
         <v>481</v>
@@ -6766,7 +7365,7 @@
         <v>289</v>
       </c>
       <c r="K23" t="s">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -6783,7 +7382,7 @@
         <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -6800,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -6816,6 +7415,9 @@
       <c r="G26" t="s">
         <v>281</v>
       </c>
+      <c r="K26" t="s">
+        <v>433</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -6830,6 +7432,9 @@
       <c r="G27" t="s">
         <v>265</v>
       </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -6843,6 +7448,9 @@
       </c>
       <c r="G28" t="s">
         <v>282</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
       </c>
       <c r="X28" t="s">
         <v>326</v>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4164" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1668,6 +1668,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2459,8 +2465,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3550,8 +3657,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5563,6 +5823,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5570,7 +6112,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5987,52 +6529,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7508,7 +8098,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>531</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -7519,7 +8109,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -7530,7 +8120,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
         <v>209</v>
@@ -7541,7 +8131,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -7552,7 +8142,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="X37" t="s">
         <v>337</v>
@@ -7563,7 +8153,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X38" t="s">
         <v>437</v>
@@ -7571,7 +8161,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="X39" t="s">
         <v>392</v>
@@ -7579,7 +8169,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -7587,7 +8177,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -7595,7 +8185,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -7603,7 +8193,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -7611,7 +8201,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -7619,7 +8209,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -7627,7 +8217,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="X46" t="s">
         <v>438</v>
@@ -7635,7 +8225,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="X47" t="s">
         <v>212</v>
@@ -7643,7 +8233,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="X48" t="s">
         <v>77</v>
@@ -7651,7 +8241,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -7659,7 +8249,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -7667,7 +8257,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -7675,7 +8265,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
         <v>482</v>
@@ -7683,7 +8273,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="X53" t="s">
         <v>463</v>
@@ -7691,7 +8281,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -7699,7 +8289,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X55" t="s">
         <v>345</v>
@@ -7707,7 +8297,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X56" t="s">
         <v>464</v>
@@ -7715,7 +8305,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -7723,7 +8313,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -7731,7 +8321,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -7739,7 +8329,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -7747,7 +8337,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -7755,7 +8345,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -7763,7 +8353,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -7771,7 +8361,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="X64" t="s">
         <v>439</v>
@@ -7779,7 +8369,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="X65" t="s">
         <v>472</v>
@@ -7787,7 +8377,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="X66" t="s">
         <v>213</v>
@@ -7795,7 +8385,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="X67" t="s">
         <v>388</v>
@@ -7803,7 +8393,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="X68" t="s">
         <v>440</v>
@@ -7811,7 +8401,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -7819,7 +8409,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -7827,7 +8417,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -7835,7 +8425,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -7843,7 +8433,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="X73" t="s">
         <v>196</v>
@@ -7851,7 +8441,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
       <c r="X74" t="s">
         <v>197</v>
@@ -7859,7 +8449,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="X75" t="s">
         <v>452</v>
@@ -7867,7 +8457,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="X76" t="s">
         <v>465</v>
@@ -7875,7 +8465,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -7883,7 +8473,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -7891,7 +8481,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -7899,7 +8489,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="X80" t="s">
         <v>519</v>
@@ -7907,7 +8497,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -7915,7 +8505,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -7923,7 +8513,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="X83" t="s">
         <v>198</v>
@@ -7931,7 +8521,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="X84" t="s">
         <v>483</v>
@@ -7939,7 +8529,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X85" t="s">
         <v>199</v>
@@ -7947,7 +8537,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="X86" t="s">
         <v>453</v>
@@ -7955,7 +8545,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="X87" t="s">
         <v>200</v>
@@ -7963,7 +8553,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="X88" t="s">
         <v>201</v>
@@ -7971,7 +8561,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="X89" t="s">
         <v>214</v>
@@ -7979,7 +8569,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -7987,7 +8577,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="X91" t="s">
         <v>202</v>
@@ -7995,18 +8585,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="X92" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
       <c r="X93" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>277</v>
+      </c>
       <c r="X94" t="s">
         <v>203</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1674,6 +1674,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1687,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2566,8 +2572,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="280">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3810,8 +4018,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6105,6 +6653,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6112,7 +7224,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6577,52 +7689,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6947,7 +8155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8639,126 +9847,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -31,26 +31,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="542">
   <si>
     <t>description</t>
   </si>
@@ -1680,6 +1681,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2774,8 +2796,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="280">
+  <fills count="310">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4358,8 +4481,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -7217,6 +7510,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7224,7 +7799,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7785,52 +8360,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="252" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="261" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="267" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="288" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="291" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="297" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="300" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8155,7 +8778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8207,51 +8830,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O1" t="s">
         <v>475</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8296,51 +8922,54 @@
         <v>434</v>
       </c>
       <c r="N2" t="s">
+        <v>536</v>
+      </c>
+      <c r="O2" t="s">
         <v>478</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8385,45 +9014,48 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
+        <v>537</v>
+      </c>
+      <c r="O3" t="s">
         <v>479</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8465,45 +9097,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>538</v>
+      </c>
+      <c r="O4" t="s">
         <v>480</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8538,40 +9173,43 @@
       <c r="M5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8603,37 +9241,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>99</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8659,37 +9300,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8715,34 +9359,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8768,25 +9412,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8809,22 +9453,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>436</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8847,19 +9491,19 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8882,19 +9526,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>102</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>516</v>
       </c>
     </row>
@@ -8917,25 +9561,25 @@
       <c r="M13" t="s">
         <v>471</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -8952,25 +9596,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -8984,25 +9628,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>523</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>104</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -9016,25 +9660,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>524</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -9045,19 +9689,19 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>525</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -9068,16 +9712,16 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>105</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -9088,16 +9732,16 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>106</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -9108,16 +9752,16 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -9128,16 +9772,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>108</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>62</v>
@@ -9148,13 +9792,13 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -9165,13 +9809,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>63</v>
@@ -9182,13 +9826,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -9199,13 +9843,13 @@
       <c r="K25" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -9216,13 +9860,13 @@
       <c r="K26" t="s">
         <v>433</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -9233,13 +9877,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>467</v>
@@ -9250,13 +9894,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>468</v>
@@ -9264,18 +9908,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9286,7 +9933,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9297,7 +9944,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9308,7 +9955,7 @@
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9319,7 +9966,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9330,7 +9977,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9341,7 +9988,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9352,7 +9999,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9363,7 +10010,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9371,7 +10018,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9379,7 +10026,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9387,7 +10034,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9395,7 +10042,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9403,7 +10050,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9411,7 +10058,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9419,7 +10066,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9427,7 +10074,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9435,7 +10082,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9443,7 +10090,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9451,7 +10098,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9459,7 +10106,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9467,7 +10114,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9475,7 +10122,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>482</v>
       </c>
     </row>
@@ -9483,7 +10130,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>463</v>
       </c>
     </row>
@@ -9491,7 +10138,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9499,7 +10146,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9507,7 +10154,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9515,7 +10162,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9523,7 +10170,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9531,7 +10178,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9539,7 +10186,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9547,7 +10194,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9555,7 +10202,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9563,7 +10210,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9571,7 +10218,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9579,7 +10226,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>472</v>
       </c>
     </row>
@@ -9587,7 +10234,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9595,7 +10242,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9603,7 +10250,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9611,7 +10258,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9619,7 +10266,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9627,7 +10274,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9635,7 +10282,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9643,7 +10290,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9651,7 +10298,7 @@
       <c r="G74" t="s">
         <v>532</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9659,7 +10306,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9667,7 +10314,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>465</v>
       </c>
     </row>
@@ -9675,7 +10322,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9683,7 +10330,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9691,7 +10338,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9699,7 +10346,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>519</v>
       </c>
     </row>
@@ -9707,7 +10354,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9715,7 +10362,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9723,7 +10370,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9731,7 +10378,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>483</v>
       </c>
     </row>
@@ -9739,7 +10386,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9747,7 +10394,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9755,7 +10402,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9763,7 +10410,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9771,7 +10418,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9779,7 +10426,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9787,7 +10434,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9795,7 +10442,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9803,7 +10450,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9811,172 +10458,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -51,7 +51,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1721,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2897,8 +2909,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="310">
+  <fills count="430">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4651,8 +5067,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -7792,6 +8888,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7799,7 +10023,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8408,52 +10632,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="282" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="285" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="285" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="288" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="288" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="291" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="291" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="294" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="297" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="297" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="300" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="300" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="303" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="291" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="312" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="315" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="318" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="321" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="327" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="330" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="342" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="345" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="348" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="351" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="357" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="360" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="372" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="378" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="381" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="387" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="390" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="402" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="405" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="408" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="411" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="417" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="420" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9174,7 +11590,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -9242,7 +11658,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -9301,7 +11717,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -9359,6 +11775,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>539</v>
+      </c>
       <c r="Q8" t="s">
         <v>91</v>
       </c>
@@ -9412,6 +11831,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>540</v>
+      </c>
       <c r="Q9" t="s">
         <v>92</v>
       </c>
@@ -9453,6 +11875,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>541</v>
+      </c>
       <c r="Q10" t="s">
         <v>436</v>
       </c>
@@ -9841,7 +12266,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>545</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -9858,7 +12283,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -9875,7 +12300,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -9892,7 +12317,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -9907,6 +12332,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -51,7 +51,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8911" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1714,6 +1714,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1733,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="267" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3313,8 +3325,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="430">
+  <fills count="460">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5747,8 +5860,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -10016,6 +10299,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10023,7 +10588,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10824,52 +11389,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="402" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="402" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="405" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="405" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="408" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="408" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="411" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="411" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="417" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="417" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="420" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="420" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="423" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="435" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="438" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="447" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="450" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11400,7 +12013,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
         <v>457</v>
@@ -11483,7 +12096,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -11566,7 +12179,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E5" t="s">
         <v>458</v>
@@ -11590,7 +12203,7 @@
         <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -11636,6 +12249,9 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="D6" t="s">
+        <v>489</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -11658,7 +12274,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -11717,7 +12333,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -11776,7 +12392,7 @@
         <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q8" t="s">
         <v>91</v>
@@ -11832,7 +12448,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="Q9" t="s">
         <v>92</v>
@@ -11876,7 +12492,7 @@
         <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q10" t="s">
         <v>436</v>
@@ -11916,6 +12532,9 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
+      <c r="N11" t="s">
+        <v>540</v>
+      </c>
       <c r="Q11" t="s">
         <v>93</v>
       </c>
@@ -11951,6 +12570,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>541</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -12266,7 +12888,7 @@
         <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8911" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9448" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1726,6 +1726,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1739,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3426,8 +3432,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="460">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6030,8 +6137,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10581,6 +10858,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10588,7 +11147,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="309">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11437,52 +11996,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="435" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="435" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="438" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="438" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="441" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="447" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="447" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="450" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="450" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="453" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="453" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="453" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="465" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="468" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="471" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="477" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11807,7 +12414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12193,6 +12800,9 @@
       <c r="H5" t="s">
         <v>459</v>
       </c>
+      <c r="I5" t="s">
+        <v>550</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -13069,7 +13679,7 @@
         <v>266</v>
       </c>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40">
@@ -13077,7 +13687,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
@@ -13085,7 +13695,7 @@
         <v>211</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -13093,7 +13703,7 @@
         <v>288</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -13101,7 +13711,7 @@
         <v>299</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -13109,7 +13719,7 @@
         <v>300</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -13117,7 +13727,7 @@
         <v>342</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -13125,7 +13735,7 @@
         <v>341</v>
       </c>
       <c r="Y46" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -13133,7 +13743,7 @@
         <v>210</v>
       </c>
       <c r="Y47" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
@@ -13141,7 +13751,7 @@
         <v>319</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49">
@@ -13149,7 +13759,7 @@
         <v>338</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -13157,7 +13767,7 @@
         <v>367</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -13165,7 +13775,7 @@
         <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
@@ -13173,7 +13783,7 @@
         <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
@@ -13181,7 +13791,7 @@
         <v>330</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54">
@@ -13189,7 +13799,7 @@
         <v>267</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
@@ -13197,7 +13807,7 @@
         <v>291</v>
       </c>
       <c r="Y55" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -13205,7 +13815,7 @@
         <v>292</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57">
@@ -13213,7 +13823,7 @@
         <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
@@ -13221,7 +13831,7 @@
         <v>302</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
@@ -13229,7 +13839,7 @@
         <v>311</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -13237,7 +13847,7 @@
         <v>336</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
@@ -13245,7 +13855,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
@@ -13253,7 +13863,7 @@
         <v>309</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -13261,7 +13871,7 @@
         <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
@@ -13269,7 +13879,7 @@
         <v>369</v>
       </c>
       <c r="Y64" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65">
@@ -13277,7 +13887,7 @@
         <v>344</v>
       </c>
       <c r="Y65" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
@@ -13285,7 +13895,7 @@
         <v>312</v>
       </c>
       <c r="Y66" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
@@ -13293,7 +13903,7 @@
         <v>268</v>
       </c>
       <c r="Y67" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
@@ -13301,7 +13911,7 @@
         <v>352</v>
       </c>
       <c r="Y68" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69">
@@ -13309,7 +13919,7 @@
         <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70">
@@ -13317,7 +13927,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
@@ -13325,7 +13935,7 @@
         <v>303</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72">
@@ -13333,7 +13943,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
@@ -13341,7 +13951,7 @@
         <v>261</v>
       </c>
       <c r="Y73" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74">
@@ -13349,7 +13959,7 @@
         <v>532</v>
       </c>
       <c r="Y74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75">
@@ -13357,7 +13967,7 @@
         <v>343</v>
       </c>
       <c r="Y75" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
@@ -13365,7 +13975,7 @@
         <v>279</v>
       </c>
       <c r="Y76" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
@@ -13373,7 +13983,7 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
@@ -13381,7 +13991,7 @@
         <v>290</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79">
@@ -13389,7 +13999,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
@@ -13397,7 +14007,7 @@
         <v>331</v>
       </c>
       <c r="Y80" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
@@ -13405,7 +14015,7 @@
         <v>269</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82">
@@ -13413,7 +14023,7 @@
         <v>280</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -13421,7 +14031,7 @@
         <v>286</v>
       </c>
       <c r="Y83" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -13429,7 +14039,7 @@
         <v>275</v>
       </c>
       <c r="Y84" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -13437,7 +14047,7 @@
         <v>270</v>
       </c>
       <c r="Y85" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86">
@@ -13445,7 +14055,7 @@
         <v>287</v>
       </c>
       <c r="Y86" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -13453,7 +14063,7 @@
         <v>271</v>
       </c>
       <c r="Y87" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88">
@@ -13461,7 +14071,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -13469,7 +14079,7 @@
         <v>304</v>
       </c>
       <c r="Y89" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -13477,7 +14087,7 @@
         <v>310</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91">
@@ -13485,7 +14095,7 @@
         <v>294</v>
       </c>
       <c r="Y91" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -13493,7 +14103,7 @@
         <v>339</v>
       </c>
       <c r="Y92" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -13501,7 +14111,7 @@
         <v>276</v>
       </c>
       <c r="Y93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94">
@@ -13509,171 +14119,176 @@
         <v>277</v>
       </c>
       <c r="Y94" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -24,13 +24,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9448" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1732,6 +1732,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1772,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3533,8 +3566,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6307,8 +6441,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="511">
     <border>
       <left/>
       <right/>
@@ -11140,6 +11427,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11147,7 +11760,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="325">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12044,52 +12657,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="462" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="465" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="465" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="468" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="468" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="471" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="471" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="477" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="477" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="480" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="480" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="483" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="483" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="495" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="498" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="510" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="510" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12414,7 +13075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12936,6 +13597,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>554</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -12976,7 +13640,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8">
@@ -13032,7 +13696,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9">
@@ -13079,7 +13743,7 @@
         <v>188</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
@@ -13120,7 +13784,7 @@
         <v>189</v>
       </c>
       <c r="AD10" t="s">
-        <v>473</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -13158,7 +13822,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>515</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -13178,7 +13842,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="N12" t="s">
         <v>541</v>
@@ -13196,7 +13860,7 @@
         <v>190</v>
       </c>
       <c r="AD12" t="s">
-        <v>516</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -13216,7 +13880,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -13231,7 +13895,7 @@
         <v>191</v>
       </c>
       <c r="AD13" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -13251,7 +13915,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -13266,7 +13930,7 @@
         <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15">
@@ -13283,7 +13947,7 @@
         <v>530</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>523</v>
@@ -13298,7 +13962,7 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16">
@@ -13315,7 +13979,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>524</v>
@@ -13330,7 +13994,7 @@
         <v>194</v>
       </c>
       <c r="AD16" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17">
@@ -13346,6 +14010,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>525</v>
       </c>
@@ -13353,7 +14020,7 @@
         <v>466</v>
       </c>
       <c r="AD17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18">
@@ -13373,7 +14040,7 @@
         <v>105</v>
       </c>
       <c r="AD18" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19">
@@ -13393,7 +14060,7 @@
         <v>106</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20">
@@ -13413,7 +14080,7 @@
         <v>107</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21">
@@ -13433,7 +14100,7 @@
         <v>108</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22">
@@ -13452,6 +14119,9 @@
       <c r="Y22" t="s">
         <v>481</v>
       </c>
+      <c r="AD22" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -13469,6 +14139,9 @@
       <c r="Y23" t="s">
         <v>109</v>
       </c>
+      <c r="AD23" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -13486,6 +14159,9 @@
       <c r="Y24" t="s">
         <v>110</v>
       </c>
+      <c r="AD24" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -13503,6 +14179,9 @@
       <c r="Y25" t="s">
         <v>111</v>
       </c>
+      <c r="AD25" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -13520,6 +14199,9 @@
       <c r="Y26" t="s">
         <v>112</v>
       </c>
+      <c r="AD26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -13537,6 +14219,9 @@
       <c r="Y27" t="s">
         <v>113</v>
       </c>
+      <c r="AD27" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -13767,7 +14452,7 @@
         <v>367</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51">
@@ -13775,7 +14460,7 @@
         <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -13783,7 +14468,7 @@
         <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -13791,7 +14476,7 @@
         <v>330</v>
       </c>
       <c r="Y53" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -13799,7 +14484,7 @@
         <v>267</v>
       </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
@@ -13807,7 +14492,7 @@
         <v>291</v>
       </c>
       <c r="Y55" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56">
@@ -13815,7 +14500,7 @@
         <v>292</v>
       </c>
       <c r="Y56" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -13823,7 +14508,7 @@
         <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58">
@@ -13831,7 +14516,7 @@
         <v>302</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
@@ -13839,7 +14524,7 @@
         <v>311</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60">
@@ -13847,7 +14532,7 @@
         <v>336</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -13855,7 +14540,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -13863,7 +14548,7 @@
         <v>309</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -13871,7 +14556,7 @@
         <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -13879,7 +14564,7 @@
         <v>369</v>
       </c>
       <c r="Y64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -13887,7 +14572,7 @@
         <v>344</v>
       </c>
       <c r="Y65" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -13895,7 +14580,7 @@
         <v>312</v>
       </c>
       <c r="Y66" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
@@ -13903,15 +14588,15 @@
         <v>268</v>
       </c>
       <c r="Y67" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
+        <v>552</v>
       </c>
       <c r="Y68" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
@@ -13919,7 +14604,7 @@
         <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70">
@@ -13927,7 +14612,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71">
@@ -13935,7 +14620,7 @@
         <v>303</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
@@ -13943,7 +14628,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -13951,7 +14636,7 @@
         <v>261</v>
       </c>
       <c r="Y73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -13959,7 +14644,7 @@
         <v>532</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -13967,7 +14652,7 @@
         <v>343</v>
       </c>
       <c r="Y75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -13975,7 +14660,7 @@
         <v>279</v>
       </c>
       <c r="Y76" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -13983,7 +14668,7 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78">
@@ -13991,7 +14676,7 @@
         <v>290</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -13999,7 +14684,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
@@ -14007,7 +14692,7 @@
         <v>331</v>
       </c>
       <c r="Y80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81">
@@ -14015,7 +14700,7 @@
         <v>269</v>
       </c>
       <c r="Y81" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -14023,7 +14708,7 @@
         <v>280</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83">
@@ -14031,7 +14716,7 @@
         <v>286</v>
       </c>
       <c r="Y83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -14039,256 +14724,264 @@
         <v>275</v>
       </c>
       <c r="Y84" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
+        <v>553</v>
       </c>
       <c r="Y85" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y87" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y91" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y92" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y93" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -44,14 +44,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9995" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10546" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1765,6 +1766,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3667,8 +3677,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6594,8 +6705,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="511">
+  <borders count="543">
     <border>
       <left/>
       <right/>
@@ -11753,6 +12017,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11760,7 +12350,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="341">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12705,52 +13295,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="495" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="495" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="498" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="498" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="510" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="510" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="510" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="510" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="519" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="522" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="525" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="528" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="534" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="525" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="537" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="537" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13075,7 +13713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13160,21 +13798,24 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13252,21 +13893,24 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -13337,22 +13981,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13420,22 +14064,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -13494,22 +14138,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -13562,22 +14206,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>99</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13624,22 +14268,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>100</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -13680,22 +14324,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>101</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -13736,13 +14380,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -13777,13 +14421,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -13815,13 +14459,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13853,13 +14497,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -13888,13 +14532,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13923,13 +14567,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -13955,13 +14599,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>104</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13987,13 +14631,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -14013,13 +14657,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>525</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -14036,10 +14680,10 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>105</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -14056,10 +14700,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>106</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -14076,10 +14720,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -14096,10 +14740,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14108,7 +14752,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="G22" t="s">
         <v>298</v>
@@ -14116,10 +14760,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>481</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -14128,7 +14772,7 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>289</v>
@@ -14136,10 +14780,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -14148,7 +14792,7 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>278</v>
@@ -14156,19 +14800,19 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>110</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>563</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>76</v>
@@ -14176,19 +14820,19 @@
       <c r="K25" t="s">
         <v>547</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>281</v>
@@ -14196,19 +14840,19 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>112</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>265</v>
@@ -14216,19 +14860,19 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>113</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>282</v>
@@ -14236,16 +14880,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G29" t="s">
         <v>283</v>
@@ -14253,117 +14897,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>551</v>
       </c>
     </row>
@@ -14371,7 +15021,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14379,7 +15029,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -14387,7 +15037,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14395,7 +15045,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -14403,7 +15053,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -14411,7 +15061,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -14419,7 +15069,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14427,7 +15077,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -14435,7 +15085,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -14443,7 +15093,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -14451,7 +15101,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>556</v>
       </c>
     </row>
@@ -14459,7 +15109,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14467,7 +15117,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14475,7 +15125,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -14483,7 +15133,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>482</v>
       </c>
     </row>
@@ -14491,7 +15141,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -14499,7 +15149,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -14507,7 +15157,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -14515,7 +15165,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -14523,7 +15173,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -14531,7 +15181,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -14539,7 +15189,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -14547,7 +15197,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -14555,7 +15205,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -14563,7 +15213,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -14571,7 +15221,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -14579,7 +15229,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -14587,7 +15237,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -14595,7 +15245,7 @@
       <c r="G68" t="s">
         <v>552</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -14603,7 +15253,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14611,7 +15261,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -14619,7 +15269,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -14627,7 +15277,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14635,7 +15285,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14643,7 +15293,7 @@
       <c r="G74" t="s">
         <v>532</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -14651,7 +15301,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14659,7 +15309,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -14667,7 +15317,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -14675,7 +15325,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -14683,7 +15333,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -14691,7 +15341,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14699,7 +15349,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -14707,7 +15357,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>519</v>
       </c>
     </row>
@@ -14715,7 +15365,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -14723,7 +15373,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -14731,7 +15381,7 @@
       <c r="G85" t="s">
         <v>553</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -14739,7 +15389,7 @@
       <c r="G86" t="s">
         <v>270</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>483</v>
       </c>
     </row>
@@ -14747,7 +15397,7 @@
       <c r="G87" t="s">
         <v>287</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14755,7 +15405,7 @@
       <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -14763,7 +15413,7 @@
       <c r="G89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14771,7 +15421,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14779,7 +15429,7 @@
       <c r="G91" t="s">
         <v>310</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -14787,7 +15437,7 @@
       <c r="G92" t="s">
         <v>294</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -14795,7 +15445,7 @@
       <c r="G93" t="s">
         <v>339</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -14803,7 +15453,7 @@
       <c r="G94" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -14811,177 +15461,177 @@
       <c r="G95" t="s">
         <v>277</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10546" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11652" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1775,6 +1775,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1788,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="347" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3778,8 +3784,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6858,8 +7066,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="543">
+  <borders count="607">
     <border>
       <left/>
       <right/>
@@ -12343,6 +12857,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12350,7 +13516,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="373">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13343,52 +14509,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="519" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="519" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="522" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="522" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="525" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="525" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="528" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="528" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="534" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="534" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="525" borderId="538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="525" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="537" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="537" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="537" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="537" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="546" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="549" fontId="317" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="552" fontId="318" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="555" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="321" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="561" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="552" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="564" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="564" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="573" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="576" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="579" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="582" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="588" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15035,7 +16297,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
+        <v>566</v>
       </c>
       <c r="Z42" t="s">
         <v>122</v>
@@ -15043,7 +16305,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Z43" t="s">
         <v>123</v>
@@ -15051,7 +16313,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z44" t="s">
         <v>124</v>
@@ -15059,7 +16321,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Z45" t="s">
         <v>125</v>
@@ -15067,7 +16329,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z46" t="s">
         <v>126</v>
@@ -15075,7 +16337,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Z47" t="s">
         <v>438</v>
@@ -15083,7 +16345,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Z48" t="s">
         <v>212</v>
@@ -15091,7 +16353,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Z49" t="s">
         <v>77</v>
@@ -15099,7 +16361,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Z50" t="s">
         <v>556</v>
@@ -15107,7 +16369,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s">
         <v>127</v>
@@ -15115,7 +16377,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s">
         <v>128</v>
@@ -15123,7 +16385,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Z53" t="s">
         <v>129</v>
@@ -15131,7 +16393,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Z54" t="s">
         <v>482</v>
@@ -15139,7 +16401,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Z55" t="s">
         <v>463</v>
@@ -15147,7 +16409,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z56" t="s">
         <v>130</v>
@@ -15155,7 +16417,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z57" t="s">
         <v>345</v>
@@ -15163,7 +16425,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
+        <v>567</v>
       </c>
       <c r="Z58" t="s">
         <v>464</v>
@@ -15171,7 +16433,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Z59" t="s">
         <v>131</v>
@@ -15179,7 +16441,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="Z60" t="s">
         <v>132</v>
@@ -15187,7 +16449,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z61" t="s">
         <v>133</v>
@@ -15195,7 +16457,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="Z62" t="s">
         <v>134</v>
@@ -15203,7 +16465,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="Z63" t="s">
         <v>135</v>
@@ -15211,7 +16473,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="Z64" t="s">
         <v>136</v>
@@ -15219,7 +16481,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="Z65" t="s">
         <v>137</v>
@@ -15227,7 +16489,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="Z66" t="s">
         <v>439</v>
@@ -15235,7 +16497,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="Z67" t="s">
         <v>472</v>
@@ -15243,7 +16505,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>552</v>
+        <v>312</v>
       </c>
       <c r="Z68" t="s">
         <v>213</v>
@@ -15251,7 +16513,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="Z69" t="s">
         <v>388</v>
@@ -15259,7 +16521,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
       <c r="Z70" t="s">
         <v>440</v>
@@ -15267,7 +16529,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Z71" t="s">
         <v>138</v>
@@ -15275,7 +16537,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z72" t="s">
         <v>139</v>
@@ -15283,7 +16545,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="Z73" t="s">
         <v>140</v>
@@ -15291,7 +16553,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>532</v>
+        <v>410</v>
       </c>
       <c r="Z74" t="s">
         <v>141</v>
@@ -15299,7 +16561,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="Z75" t="s">
         <v>196</v>
@@ -15307,7 +16569,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
       <c r="Z76" t="s">
         <v>197</v>
@@ -15315,7 +16577,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="Z77" t="s">
         <v>452</v>
@@ -15323,7 +16585,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Z78" t="s">
         <v>465</v>
@@ -15331,7 +16593,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="Z79" t="s">
         <v>142</v>
@@ -15339,7 +16601,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="Z80" t="s">
         <v>143</v>
@@ -15347,7 +16609,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="Z81" t="s">
         <v>144</v>
@@ -15355,7 +16617,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="Z82" t="s">
         <v>519</v>
@@ -15363,7 +16625,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Z83" t="s">
         <v>145</v>
@@ -15371,7 +16633,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Z84" t="s">
         <v>146</v>
@@ -15379,7 +16641,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="Z85" t="s">
         <v>198</v>
@@ -15387,7 +16649,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Z86" t="s">
         <v>483</v>
@@ -15395,7 +16657,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>287</v>
+        <v>553</v>
       </c>
       <c r="Z87" t="s">
         <v>199</v>
@@ -15403,7 +16665,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z88" t="s">
         <v>453</v>
@@ -15411,7 +16673,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Z89" t="s">
         <v>200</v>
@@ -15419,7 +16681,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="Z90" t="s">
         <v>201</v>
@@ -15427,7 +16689,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="Z91" t="s">
         <v>214</v>
@@ -15435,7 +16697,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Z92" t="s">
         <v>147</v>
@@ -15443,7 +16705,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="Z93" t="s">
         <v>202</v>
@@ -15451,7 +16713,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="Z94" t="s">
         <v>441</v>
@@ -15459,18 +16721,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="Z95" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
       <c r="Z96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>277</v>
+      </c>
       <c r="Z97" t="s">
         <v>204</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,13 +44,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11652" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12203" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1781,6 +1781,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1791,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="347" x14ac:knownFonts="1">
+  <fonts count="363" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3986,8 +3989,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7372,8 +7476,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="607">
+  <borders count="639">
     <border>
       <left/>
       <right/>
@@ -13509,6 +13766,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13516,7 +14099,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="389">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14605,52 +15188,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="573" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="573" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="576" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="576" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="579" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="579" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="582" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="582" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="337" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="588" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="588" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="579" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="591" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="591" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="591" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="606" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="609" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="615" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14975,7 +15606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15060,24 +15691,21 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
-        <v>563</v>
+        <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -15155,24 +15783,21 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
-        <v>565</v>
+        <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AD2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -15243,22 +15868,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
+      <c r="Y3" t="s">
+        <v>98</v>
+      </c>
       <c r="Z3" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15326,22 +15951,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
+      <c r="Y4" t="s">
+        <v>353</v>
+      </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15400,22 +16025,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
+      <c r="Y5" t="s">
+        <v>354</v>
+      </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15468,22 +16093,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
+      <c r="Y6" t="s">
+        <v>99</v>
+      </c>
       <c r="Z6" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -15530,22 +16155,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
       <c r="Z7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -15586,22 +16211,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
       <c r="Z8" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AA8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -15642,13 +16267,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -15683,13 +16308,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -15721,13 +16346,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -15759,13 +16384,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>102</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -15794,13 +16419,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15829,13 +16454,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>103</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15861,13 +16486,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>104</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15885,7 +16510,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>568</v>
       </c>
       <c r="Q16" t="s">
         <v>524</v>
@@ -15893,13 +16518,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -15917,15 +16542,15 @@
         <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>525</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -15942,10 +16567,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>105</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -15962,10 +16590,10 @@
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>106</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -15982,10 +16610,10 @@
       <c r="K20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>107</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -16002,10 +16630,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>108</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -16022,10 +16650,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>481</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -16042,10 +16670,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -16062,16 +16690,16 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>63</v>
@@ -16082,16 +16710,16 @@
       <c r="K25" t="s">
         <v>547</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>448</v>
@@ -16102,16 +16730,16 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -16122,16 +16750,16 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>225</v>
@@ -16142,13 +16770,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>467</v>
@@ -16159,13 +16787,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>468</v>
@@ -16173,21 +16801,18 @@
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" t="s">
         <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -16198,7 +16823,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -16209,7 +16834,7 @@
       <c r="G33" t="s">
         <v>531</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16220,7 +16845,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16231,7 +16856,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16242,7 +16867,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16253,7 +16878,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -16264,7 +16889,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -16275,7 +16900,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>551</v>
       </c>
     </row>
@@ -16283,7 +16908,7 @@
       <c r="G40" t="s">
         <v>78</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -16291,7 +16916,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16299,7 +16924,7 @@
       <c r="G42" t="s">
         <v>566</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16307,7 +16932,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16315,7 +16940,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16323,7 +16948,7 @@
       <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16331,7 +16956,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -16339,7 +16964,7 @@
       <c r="G47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -16347,7 +16972,7 @@
       <c r="G48" t="s">
         <v>210</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -16355,7 +16980,7 @@
       <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>77</v>
       </c>
     </row>
@@ -16363,7 +16988,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>556</v>
       </c>
     </row>
@@ -16371,7 +16996,7 @@
       <c r="G51" t="s">
         <v>367</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16379,7 +17004,7 @@
       <c r="G52" t="s">
         <v>301</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16387,7 +17012,7 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16395,7 +17020,7 @@
       <c r="G54" t="s">
         <v>330</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>482</v>
       </c>
     </row>
@@ -16403,7 +17028,7 @@
       <c r="G55" t="s">
         <v>267</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -16411,7 +17036,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -16419,7 +17044,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -16427,7 +17052,7 @@
       <c r="G58" t="s">
         <v>567</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -16435,7 +17060,7 @@
       <c r="G59" t="s">
         <v>293</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16443,7 +17068,7 @@
       <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16451,7 +17076,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16459,7 +17084,7 @@
       <c r="G62" t="s">
         <v>336</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16467,7 +17092,7 @@
       <c r="G63" t="s">
         <v>308</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -16475,7 +17100,7 @@
       <c r="G64" t="s">
         <v>309</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16483,7 +17108,7 @@
       <c r="G65" t="s">
         <v>368</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -16491,7 +17116,7 @@
       <c r="G66" t="s">
         <v>369</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16499,7 +17124,7 @@
       <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16507,7 +17132,7 @@
       <c r="G68" t="s">
         <v>312</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -16515,7 +17140,7 @@
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16523,7 +17148,7 @@
       <c r="G70" t="s">
         <v>552</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -16531,7 +17156,7 @@
       <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -16539,7 +17164,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -16547,7 +17172,7 @@
       <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -16555,7 +17180,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16563,7 +17188,7 @@
       <c r="G75" t="s">
         <v>261</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -16571,7 +17196,7 @@
       <c r="G76" t="s">
         <v>532</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -16579,7 +17204,7 @@
       <c r="G77" t="s">
         <v>343</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -16587,7 +17212,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -16595,7 +17220,7 @@
       <c r="G79" t="s">
         <v>285</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -16603,7 +17228,7 @@
       <c r="G80" t="s">
         <v>290</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -16611,7 +17236,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16619,7 +17244,7 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>519</v>
       </c>
     </row>
@@ -16627,7 +17252,7 @@
       <c r="G83" t="s">
         <v>269</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16635,7 +17260,7 @@
       <c r="G84" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16643,7 +17268,7 @@
       <c r="G85" t="s">
         <v>286</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16651,7 +17276,7 @@
       <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>483</v>
       </c>
     </row>
@@ -16659,7 +17284,7 @@
       <c r="G87" t="s">
         <v>553</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -16667,7 +17292,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -16675,7 +17300,7 @@
       <c r="G89" t="s">
         <v>287</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16683,7 +17308,7 @@
       <c r="G90" t="s">
         <v>271</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16691,7 +17316,7 @@
       <c r="G91" t="s">
         <v>272</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -16699,7 +17324,7 @@
       <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16707,7 +17332,7 @@
       <c r="G93" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16715,7 +17340,7 @@
       <c r="G94" t="s">
         <v>294</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16723,7 +17348,7 @@
       <c r="G95" t="s">
         <v>339</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -16731,7 +17356,7 @@
       <c r="G96" t="s">
         <v>276</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16739,167 +17364,167 @@
       <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12203" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13866" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1784,6 +1784,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="363" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4090,8 +4102,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7629,8 +7944,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="639">
+  <borders count="735">
     <border>
       <left/>
       <right/>
@@ -12284,6 +13058,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14099,7 +15851,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15236,52 +16988,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="600" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="600" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="603" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="603" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="606" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="606" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="609" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="609" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="615" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="615" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="618" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="618" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="630" fontId="365" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="633" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="636" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="369" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="642" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="633" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="654" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="657" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="660" fontId="382" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="385" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="660" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="672" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="672" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="690" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="696" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="687" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="699" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="699" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15606,7 +17502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16691,7 +18587,7 @@
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>569</v>
       </c>
       <c r="AD24" t="s">
         <v>561</v>
@@ -16711,7 +18607,7 @@
         <v>547</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="s">
         <v>562</v>
@@ -16731,7 +18627,7 @@
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD26" t="s">
         <v>235</v>
@@ -16751,7 +18647,7 @@
         <v>433</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s">
         <v>236</v>
@@ -16771,7 +18667,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -16788,7 +18684,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -16802,7 +18698,7 @@
         <v>215</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -16813,7 +18709,7 @@
         <v>274</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -16824,7 +18720,7 @@
         <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -16835,7 +18731,7 @@
         <v>531</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -16846,7 +18742,7 @@
         <v>259</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35">
@@ -16857,7 +18753,7 @@
         <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -16868,7 +18764,7 @@
         <v>306</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -16879,7 +18775,7 @@
         <v>260</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
@@ -16890,7 +18786,7 @@
         <v>307</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -16901,7 +18797,7 @@
         <v>266</v>
       </c>
       <c r="Y39" t="s">
-        <v>551</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
@@ -16909,7 +18805,7 @@
         <v>78</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
@@ -16917,7 +18813,7 @@
         <v>211</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42">
@@ -16925,7 +18821,7 @@
         <v>566</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
@@ -16933,7 +18829,7 @@
         <v>288</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -16941,7 +18837,7 @@
         <v>299</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -16949,7 +18845,7 @@
         <v>300</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -16957,7 +18853,7 @@
         <v>342</v>
       </c>
       <c r="Y46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -16965,7 +18861,7 @@
         <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -16973,7 +18869,7 @@
         <v>210</v>
       </c>
       <c r="Y48" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -16981,7 +18877,7 @@
         <v>319</v>
       </c>
       <c r="Y49" t="s">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
@@ -16989,7 +18885,7 @@
         <v>338</v>
       </c>
       <c r="Y50" t="s">
-        <v>556</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
@@ -16997,7 +18893,7 @@
         <v>367</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -17005,7 +18901,7 @@
         <v>301</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53">
@@ -17013,7 +18909,7 @@
         <v>355</v>
       </c>
       <c r="Y53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
@@ -17021,7 +18917,7 @@
         <v>330</v>
       </c>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
@@ -17029,7 +18925,7 @@
         <v>267</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -17037,7 +18933,7 @@
         <v>291</v>
       </c>
       <c r="Y56" t="s">
-        <v>130</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57">
@@ -17045,7 +18941,7 @@
         <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
@@ -17053,7 +18949,7 @@
         <v>567</v>
       </c>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -17061,7 +18957,7 @@
         <v>293</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
@@ -17069,7 +18965,7 @@
         <v>302</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
@@ -17077,7 +18973,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
@@ -17085,7 +18981,7 @@
         <v>336</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
@@ -17093,7 +18989,7 @@
         <v>308</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -17101,7 +18997,7 @@
         <v>309</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
@@ -17109,7 +19005,7 @@
         <v>368</v>
       </c>
       <c r="Y65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -17117,7 +19013,7 @@
         <v>369</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
@@ -17125,7 +19021,7 @@
         <v>344</v>
       </c>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
@@ -17133,7 +19029,7 @@
         <v>312</v>
       </c>
       <c r="Y68" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
@@ -17141,7 +19037,7 @@
         <v>268</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70">
@@ -17149,7 +19045,7 @@
         <v>552</v>
       </c>
       <c r="Y70" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -17157,7 +19053,7 @@
         <v>313</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
@@ -17165,7 +19061,7 @@
         <v>409</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
@@ -17173,7 +19069,7 @@
         <v>303</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -17181,7 +19077,7 @@
         <v>410</v>
       </c>
       <c r="Y74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -17189,7 +19085,7 @@
         <v>261</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -17197,7 +19093,7 @@
         <v>532</v>
       </c>
       <c r="Y76" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
@@ -17205,7 +19101,7 @@
         <v>343</v>
       </c>
       <c r="Y77" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
@@ -17213,7 +19109,7 @@
         <v>279</v>
       </c>
       <c r="Y78" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
@@ -17221,7 +19117,7 @@
         <v>285</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
@@ -17229,7 +19125,7 @@
         <v>290</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
@@ -17237,7 +19133,7 @@
         <v>428</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
@@ -17245,7 +19141,7 @@
         <v>331</v>
       </c>
       <c r="Y82" t="s">
-        <v>519</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
@@ -17253,7 +19149,7 @@
         <v>269</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -17261,7 +19157,7 @@
         <v>280</v>
       </c>
       <c r="Y84" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85">
@@ -17269,7 +19165,7 @@
         <v>286</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
@@ -17277,7 +19173,7 @@
         <v>275</v>
       </c>
       <c r="Y86" t="s">
-        <v>483</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
@@ -17285,7 +19181,7 @@
         <v>553</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -17293,7 +19189,7 @@
         <v>270</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89">
@@ -17301,7 +19197,7 @@
         <v>287</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -17309,7 +19205,7 @@
         <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
@@ -17317,7 +19213,7 @@
         <v>272</v>
       </c>
       <c r="Y91" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -17325,7 +19221,7 @@
         <v>304</v>
       </c>
       <c r="Y92" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -17333,7 +19229,7 @@
         <v>310</v>
       </c>
       <c r="Y93" t="s">
-        <v>202</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94">
@@ -17341,7 +19237,7 @@
         <v>294</v>
       </c>
       <c r="Y94" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
@@ -17349,7 +19245,7 @@
         <v>339</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
@@ -17357,7 +19253,7 @@
         <v>276</v>
       </c>
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
@@ -17365,166 +19261,186 @@
         <v>277</v>
       </c>
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>533</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>382</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13866" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1796,6 +1796,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1809,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="427" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4405,8 +4411,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8403,8 +8510,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="735">
+  <borders count="767">
     <border>
       <left/>
       <right/>
@@ -13058,6 +13318,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15851,7 +16437,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="453">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17132,52 +17718,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="690" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="690" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="696" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="696" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="687" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="687" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="699" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="699" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="699" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="699" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="708" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="711" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="714" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="717" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="723" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="714" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="726" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="726" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17883,7 +18517,7 @@
         <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>573</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
@@ -17957,7 +18591,7 @@
         <v>527</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
@@ -18019,7 +18653,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>446</v>
@@ -18081,7 +18715,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -18137,7 +18771,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -18181,7 +18815,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>451</v>
@@ -18222,7 +18856,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -18260,7 +18894,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -18298,7 +18932,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -18333,7 +18967,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -18368,7 +19002,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>530</v>
@@ -18400,7 +19034,7 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -18432,7 +19066,7 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -18458,7 +19092,7 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -18481,7 +19115,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -18501,7 +19135,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -18521,7 +19155,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -18541,7 +19175,7 @@
         <v>564</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>469</v>
@@ -18561,7 +19195,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -18581,7 +19215,7 @@
         <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
@@ -18601,7 +19235,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>547</v>
@@ -18621,7 +19255,7 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -18641,7 +19275,7 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>433</v>
@@ -18661,7 +19295,7 @@
         <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -18678,7 +19312,7 @@
         <v>467</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -18695,7 +19329,7 @@
         <v>468</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
         <v>114</v>
@@ -18706,7 +19340,7 @@
         <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
         <v>115</v>
@@ -18717,7 +19351,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
         <v>116</v>
@@ -18728,7 +19362,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>531</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
         <v>117</v>
@@ -18739,7 +19373,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>531</v>
       </c>
       <c r="Y34" t="s">
         <v>570</v>
@@ -18750,7 +19384,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
         <v>118</v>
@@ -18761,7 +19395,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
         <v>119</v>
@@ -18772,7 +19406,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
         <v>209</v>
@@ -18783,7 +19417,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s">
         <v>120</v>
@@ -18794,7 +19428,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
         <v>337</v>
@@ -18802,7 +19436,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
         <v>437</v>
@@ -18810,7 +19444,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>551</v>
@@ -18818,7 +19452,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>566</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
         <v>392</v>
@@ -18826,7 +19460,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
+        <v>566</v>
       </c>
       <c r="Y43" t="s">
         <v>121</v>
@@ -18834,7 +19468,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
         <v>122</v>
@@ -18842,7 +19476,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
         <v>123</v>
@@ -18850,7 +19484,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
         <v>124</v>
@@ -18858,7 +19492,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
         <v>125</v>
@@ -18866,7 +19500,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
         <v>126</v>
@@ -18874,7 +19508,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
         <v>438</v>
@@ -18882,7 +19516,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
         <v>212</v>
@@ -18890,7 +19524,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -18898,7 +19532,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
         <v>556</v>
@@ -18906,7 +19540,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
         <v>127</v>
@@ -18914,7 +19548,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
         <v>128</v>
@@ -18922,7 +19556,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
         <v>129</v>
@@ -18930,7 +19564,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
         <v>482</v>
@@ -18938,7 +19572,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
         <v>463</v>
@@ -18946,7 +19580,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
         <v>130</v>
@@ -18954,7 +19588,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>293</v>
+        <v>567</v>
       </c>
       <c r="Y59" t="s">
         <v>345</v>
@@ -18962,7 +19596,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
         <v>464</v>
@@ -18970,7 +19604,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
         <v>131</v>
@@ -18978,7 +19612,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
         <v>132</v>
@@ -18986,7 +19620,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
         <v>133</v>
@@ -18994,7 +19628,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
         <v>134</v>
@@ -19002,7 +19636,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
         <v>135</v>
@@ -19010,7 +19644,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
         <v>136</v>
@@ -19018,7 +19652,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
         <v>137</v>
@@ -19026,7 +19660,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
         <v>439</v>
@@ -19034,7 +19668,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
         <v>472</v>
@@ -19042,7 +19676,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>552</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
         <v>213</v>
@@ -19050,7 +19684,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>313</v>
+        <v>552</v>
       </c>
       <c r="Y71" t="s">
         <v>388</v>
@@ -19058,7 +19692,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
         <v>440</v>
@@ -19066,7 +19700,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
         <v>138</v>
@@ -19074,7 +19708,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
         <v>139</v>
@@ -19082,7 +19716,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
         <v>140</v>
@@ -19090,7 +19724,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>532</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
         <v>141</v>
@@ -19098,7 +19732,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>343</v>
+        <v>532</v>
       </c>
       <c r="Y77" t="s">
         <v>196</v>
@@ -19106,7 +19740,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
         <v>197</v>
@@ -19114,7 +19748,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
         <v>452</v>
@@ -19122,7 +19756,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
         <v>465</v>
@@ -19130,7 +19764,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
         <v>142</v>
@@ -19138,7 +19772,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
         <v>143</v>
@@ -19146,7 +19780,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
         <v>144</v>
@@ -19154,7 +19788,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
         <v>519</v>
@@ -19162,7 +19796,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
         <v>145</v>
@@ -19170,7 +19804,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
         <v>146</v>
@@ -19178,7 +19812,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>553</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
         <v>198</v>
@@ -19186,7 +19820,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>553</v>
       </c>
       <c r="Y88" t="s">
         <v>483</v>
@@ -19194,7 +19828,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
         <v>199</v>
@@ -19202,7 +19836,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
         <v>453</v>
@@ -19210,7 +19844,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
         <v>200</v>
@@ -19218,7 +19852,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
         <v>201</v>
@@ -19226,15 +19860,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
         <v>214</v>
@@ -19242,7 +19876,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y95" t="s">
         <v>147</v>
@@ -19250,7 +19884,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s">
         <v>202</v>
@@ -19258,13 +19892,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y97" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>277</v>
+      </c>
       <c r="Y98" t="s">
         <v>442</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14422" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14979" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1802,6 +1802,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="427" x14ac:knownFonts="1">
+  <fonts count="443" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4512,8 +4515,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8663,8 +8767,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="767">
+  <borders count="799">
     <border>
       <left/>
       <right/>
@@ -13318,6 +13575,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16437,7 +17020,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="469">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17766,52 +18349,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="708" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="708" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="711" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="711" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="714" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="714" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="717" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="717" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="723" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="723" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="714" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="714" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="726" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="726" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="726" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="726" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="735" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="738" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="741" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="744" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="750" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="741" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="753" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="753" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18136,7 +18767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19871,7 +20502,7 @@
         <v>310</v>
       </c>
       <c r="Y94" t="s">
-        <v>214</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -19879,7 +20510,7 @@
         <v>294</v>
       </c>
       <c r="Y95" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
@@ -19887,7 +20518,7 @@
         <v>339</v>
       </c>
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
@@ -19895,7 +20526,7 @@
         <v>276</v>
       </c>
       <c r="Y97" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98">
@@ -19903,181 +20534,186 @@
         <v>277</v>
       </c>
       <c r="Y98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>571</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14979" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15540" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1806,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="443" x14ac:knownFonts="1">
+  <fonts count="459" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4616,8 +4635,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8920,8 +9040,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="799">
+  <borders count="831">
     <border>
       <left/>
       <right/>
@@ -13575,6 +13848,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17020,7 +17619,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18397,52 +18996,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="735" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="735" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="738" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="738" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="741" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="741" fontId="430" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="744" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="744" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="750" borderId="790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="750" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="741" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="741" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="753" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="753" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="753" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="753" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="762" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="765" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="768" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="771" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="777" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="768" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="780" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="780" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18767,7 +19414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18792,81 +19439,84 @@
         <v>485</v>
       </c>
       <c r="E1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>535</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -18884,81 +19534,84 @@
         <v>486</v>
       </c>
       <c r="E2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>460</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>536</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>478</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -18975,76 +19628,76 @@
       <c r="D3" t="s">
         <v>546</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>476</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>537</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>479</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19058,82 +19711,82 @@
       <c r="D4" t="s">
         <v>487</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>450</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>477</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>538</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>480</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -19141,73 +19794,73 @@
       <c r="D5" t="s">
         <v>488</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>573</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>550</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>461</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>548</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -19215,1505 +19868,1513 @@
       <c r="D6" t="s">
         <v>489</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>527</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>542</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>99</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>554</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>543</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>100</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>528</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>544</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>101</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>549</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>539</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>436</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>578</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>529</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>470</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>540</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>389</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>555</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>541</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>535</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>471</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" t="s">
+        <v>535</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>530</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>523</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>104</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>568</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>524</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>525</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>462</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>105</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>83</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>106</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
         <v>564</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>481</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>569</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>547</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>467</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>468</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
-        <v>468</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>531</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>551</v>
+      <c r="Z41" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>566</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>567</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>552</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15540" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16102" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1824,6 +1824,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="459" x14ac:knownFonts="1">
+  <fonts count="475" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4736,8 +4742,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9193,8 +9300,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="831">
+  <borders count="863">
     <border>
       <left/>
       <right/>
@@ -13848,6 +14108,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17619,7 +18205,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="501">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19044,52 +19630,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="762" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="762" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="765" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="765" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="768" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="768" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="771" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="771" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="777" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="777" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="768" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="768" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="780" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="780" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="780" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="780" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="789" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="792" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="795" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="798" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="804" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="795" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="807" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="807" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20373,7 +21007,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>582</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -20396,7 +21030,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -20416,7 +21050,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -20436,13 +21070,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>583</v>
       </c>
       <c r="Z21" t="s">
         <v>108</v>
@@ -20456,7 +21090,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>564</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -20476,7 +21110,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -20496,7 +21130,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -20516,7 +21150,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -20536,7 +21170,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -20556,7 +21190,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -20576,7 +21210,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -20593,7 +21227,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -20610,7 +21244,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -20624,7 +21258,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -20635,7 +21269,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -20646,7 +21280,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -20657,7 +21291,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
@@ -20668,7 +21302,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -20679,7 +21313,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -20690,7 +21324,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -20701,7 +21335,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -20712,7 +21346,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -20722,6 +21356,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,15 +20,15 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16102" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16667" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1830,6 +1830,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="475" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4843,8 +4858,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9453,8 +9569,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="863">
+  <borders count="895">
     <border>
       <left/>
       <right/>
@@ -14108,6 +14377,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18205,7 +18800,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="517">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19678,52 +20273,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="789" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="789" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="792" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="792" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="795" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="795" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="798" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="798" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="804" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="804" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="795" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="795" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="807" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="807" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="807" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="807" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="816" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="819" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="822" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="825" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="831" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="822" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="834" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="834" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20048,7 +20691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20364,7 +21007,7 @@
         <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>585</v>
       </c>
       <c r="M4" t="s">
         <v>334</v>
@@ -20400,7 +21043,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>586</v>
       </c>
       <c r="AA4" t="s">
         <v>172</v>
@@ -20447,7 +21090,7 @@
         <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -20514,11 +21157,14 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>584</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -20580,7 +21226,7 @@
         <v>554</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -20639,7 +21285,7 @@
         <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -20695,7 +21341,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -20739,7 +21385,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -20780,7 +21426,7 @@
         <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>529</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>470</v>
@@ -20818,7 +21464,7 @@
         <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>529</v>
       </c>
       <c r="N12" t="s">
         <v>555</v>
@@ -20856,7 +21502,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -20891,7 +21537,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
@@ -20923,7 +21569,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -20955,7 +21601,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="N16" t="s">
         <v>568</v>
@@ -20987,7 +21633,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -21007,13 +21653,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>582</v>
+        <v>414</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -21030,13 +21676,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>106</v>
@@ -21050,13 +21696,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>107</v>
@@ -21070,13 +21716,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>583</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>108</v>
@@ -21090,13 +21736,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>564</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>583</v>
       </c>
       <c r="Z22" t="s">
         <v>481</v>
@@ -21110,13 +21756,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>564</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="Z23" t="s">
         <v>109</v>
@@ -21130,13 +21776,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>569</v>
@@ -21150,13 +21796,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>110</v>
@@ -21170,13 +21816,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>547</v>
       </c>
       <c r="Z26" t="s">
         <v>111</v>
@@ -21190,13 +21836,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>112</v>
@@ -21210,13 +21856,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>113</v>
@@ -21227,13 +21873,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>326</v>
@@ -21244,10 +21890,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>114</v>
@@ -21258,7 +21907,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -21269,7 +21918,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -21280,7 +21929,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -21291,7 +21940,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
@@ -21302,7 +21951,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -21313,7 +21962,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -21324,7 +21973,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -21335,7 +21984,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -21346,7 +21995,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -21356,9 +22005,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -21832,186 +22478,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>526</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>581</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>571</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16667" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17232" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1852,7 +1852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="491" x14ac:knownFonts="1">
+  <fonts count="507" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4959,8 +4959,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9722,8 +9823,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="895">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -14377,6 +14631,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18800,7 +19380,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="533">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20321,52 +20901,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="816" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="816" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="819" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="819" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="822" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="822" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="825" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="825" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="831" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="831" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="822" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="822" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="834" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="834" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="834" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="834" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="843" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="846" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="849" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="852" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="858" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="849" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="861" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="861" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17232" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17798" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1845,6 +1845,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1855,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="507" x14ac:knownFonts="1">
+  <fonts count="523" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5060,8 +5063,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9976,8 +10080,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="959">
     <border>
       <left/>
       <right/>
@@ -14631,6 +14888,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19380,7 +19963,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="533">
+  <cellXfs count="549">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20949,52 +21532,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="843" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="843" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="846" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="846" fontId="493" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="849" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="849" fontId="494" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="852" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="852" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="497" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="858" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="858" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="849" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="849" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="861" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="861" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="861" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="861" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="870" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="873" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="876" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="879" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="885" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="876" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="888" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="888" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21319,7 +21950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23029,7 +23660,7 @@
         <v>270</v>
       </c>
       <c r="Z89" t="s">
-        <v>199</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90">
@@ -23037,7 +23668,7 @@
         <v>287</v>
       </c>
       <c r="Z90" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
@@ -23045,7 +23676,7 @@
         <v>271</v>
       </c>
       <c r="Z91" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92">
@@ -23053,7 +23684,7 @@
         <v>272</v>
       </c>
       <c r="Z92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -23061,7 +23692,7 @@
         <v>304</v>
       </c>
       <c r="Z93" t="s">
-        <v>574</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
@@ -23069,7 +23700,7 @@
         <v>310</v>
       </c>
       <c r="Z94" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95">
@@ -23077,7 +23708,7 @@
         <v>294</v>
       </c>
       <c r="Z95" t="s">
-        <v>214</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -23085,7 +23716,7 @@
         <v>339</v>
       </c>
       <c r="Z96" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
@@ -23093,7 +23724,7 @@
         <v>276</v>
       </c>
       <c r="Z97" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
@@ -23101,201 +23732,206 @@
         <v>277</v>
       </c>
       <c r="Z98" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>587</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>442</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>571</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>163</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17798" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18364" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1855,7 +1855,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="523" x14ac:knownFonts="1">
+  <fonts count="539" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5164,8 +5164,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10233,8 +10334,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="959">
+  <borders count="991">
     <border>
       <left/>
       <right/>
@@ -14888,6 +15142,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19963,7 +20543,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="565">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21580,52 +22160,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="870" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="870" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="873" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="873" fontId="509" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="876" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="876" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="879" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="879" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="885" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="885" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="876" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="876" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="888" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="888" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="888" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="888" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="897" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="900" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="903" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="906" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="912" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="903" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="915" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="915" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -25,9 +25,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -37,23 +37,24 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18364" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18949" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1848,6 +1849,63 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1913,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="539" x14ac:knownFonts="1">
+  <fonts count="555" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5265,8 +5323,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10487,8 +10646,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="991">
+  <borders count="1023">
     <border>
       <left/>
       <right/>
@@ -15142,6 +15454,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20543,7 +21181,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="581">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22208,52 +22846,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="897" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="897" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="900" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="900" fontId="525" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="903" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="903" fontId="526" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="906" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="906" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="912" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="912" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="903" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="903" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="915" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="915" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="915" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="915" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="924" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="927" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="930" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="933" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="939" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="930" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="942" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="942" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22578,7 +23264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22666,21 +23352,24 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>413</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -22716,7 +23405,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>460</v>
+        <v>593</v>
       </c>
       <c r="L2" t="s">
         <v>314</v>
@@ -22761,21 +23450,24 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>170</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>175</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>431</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -22847,21 +23539,24 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA3" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>176</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>363</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>183</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22930,21 +23625,24 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA4" t="s">
         <v>586</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>172</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>183</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>423</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -23004,21 +23702,24 @@
         <v>358</v>
       </c>
       <c r="Z5" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA5" t="s">
         <v>579</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>173</v>
       </c>
-      <c r="AB5" t="s">
-        <v>178</v>
-      </c>
       <c r="AC5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD5" t="s">
         <v>184</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>424</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23048,7 +23749,7 @@
         <v>584</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>594</v>
       </c>
       <c r="L6" t="s">
         <v>461</v>
@@ -23075,21 +23776,24 @@
         <v>360</v>
       </c>
       <c r="Z6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA6" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>444</v>
       </c>
-      <c r="AB6" t="s">
-        <v>179</v>
-      </c>
       <c r="AC6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD6" t="s">
         <v>185</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>425</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -23110,7 +23814,7 @@
         <v>446</v>
       </c>
       <c r="K7" t="s">
-        <v>554</v>
+        <v>347</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -23136,22 +23840,22 @@
       <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>100</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>445</v>
       </c>
-      <c r="AB7" t="s">
-        <v>180</v>
-      </c>
       <c r="AC7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD7" t="s">
         <v>186</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>426</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -23171,6 +23875,9 @@
       <c r="I8" t="s">
         <v>327</v>
       </c>
+      <c r="K8" t="s">
+        <v>554</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -23192,22 +23899,22 @@
       <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>101</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>174</v>
       </c>
-      <c r="AB8" t="s">
-        <v>181</v>
-      </c>
       <c r="AC8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD8" t="s">
         <v>187</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>427</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -23248,13 +23955,16 @@
       <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>208</v>
       </c>
       <c r="AC9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -23269,7 +23979,7 @@
         <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -23289,13 +23999,16 @@
       <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>256</v>
       </c>
       <c r="AC10" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -23310,7 +24023,7 @@
         <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>592</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -23327,13 +24040,13 @@
       <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -23348,7 +24061,7 @@
         <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="L12" t="s">
         <v>529</v>
@@ -23365,13 +24078,13 @@
       <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>102</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -23386,7 +24099,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>389</v>
@@ -23398,15 +24111,15 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -23421,7 +24134,7 @@
         <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -23433,15 +24146,15 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA14" t="s">
         <v>103</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -23455,6 +24168,9 @@
       <c r="H15" t="s">
         <v>263</v>
       </c>
+      <c r="I15" t="s">
+        <v>323</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -23465,15 +24181,15 @@
         <v>523</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -23487,6 +24203,9 @@
       <c r="H16" t="s">
         <v>264</v>
       </c>
+      <c r="I16" t="s">
+        <v>324</v>
+      </c>
       <c r="L16" t="s">
         <v>530</v>
       </c>
@@ -23497,15 +24216,15 @@
         <v>524</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -23525,13 +24244,16 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" t="s">
-        <v>525</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="S17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -23551,10 +24273,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AA18" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -23571,10 +24293,10 @@
       <c r="L19" t="s">
         <v>462</v>
       </c>
-      <c r="Z19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AA19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -23591,10 +24313,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AA20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -23611,10 +24333,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AA21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -23631,10 +24353,10 @@
       <c r="L22" t="s">
         <v>583</v>
       </c>
-      <c r="Z22" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AA22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -23651,10 +24373,10 @@
       <c r="L23" t="s">
         <v>469</v>
       </c>
-      <c r="Z23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AA23" t="s">
+        <v>481</v>
+      </c>
+      <c r="AF23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -23671,10 +24393,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
-        <v>569</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AA24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF24" t="s">
         <v>561</v>
       </c>
     </row>
@@ -23691,16 +24413,16 @@
       <c r="L25" t="s">
         <v>391</v>
       </c>
-      <c r="Z25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AA25" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>590</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -23711,16 +24433,16 @@
       <c r="L26" t="s">
         <v>547</v>
       </c>
-      <c r="Z26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AA26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>224</v>
@@ -23731,16 +24453,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AA27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>225</v>
@@ -23751,13 +24473,13 @@
       <c r="L28" t="s">
         <v>433</v>
       </c>
-      <c r="Z28" t="s">
-        <v>113</v>
+      <c r="AA28" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>467</v>
@@ -23768,13 +24490,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
-        <v>326</v>
+      <c r="AA29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>468</v>
@@ -23785,13 +24507,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
-        <v>114</v>
+      <c r="AA30" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
         <v>415</v>
@@ -23799,19 +24521,22 @@
       <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Z31" t="s">
-        <v>115</v>
+      <c r="AA31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Z32" t="s">
-        <v>116</v>
+      <c r="AA32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -23821,8 +24546,8 @@
       <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Z33" t="s">
-        <v>117</v>
+      <c r="AA33" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -23832,8 +24557,8 @@
       <c r="H34" t="s">
         <v>531</v>
       </c>
-      <c r="Z34" t="s">
-        <v>570</v>
+      <c r="AA34" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -23843,8 +24568,8 @@
       <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Z35" t="s">
-        <v>118</v>
+      <c r="AA35" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="36">
@@ -23854,8 +24579,8 @@
       <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Z36" t="s">
-        <v>119</v>
+      <c r="AA36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -23865,8 +24590,8 @@
       <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Z37" t="s">
-        <v>209</v>
+      <c r="AA37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -23876,8 +24601,8 @@
       <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Z38" t="s">
-        <v>120</v>
+      <c r="AA38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39">
@@ -23887,679 +24612,709 @@
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Z39" t="s">
-        <v>337</v>
+      <c r="AA39" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Z40" t="s">
-        <v>437</v>
+      <c r="AA40" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
-        <v>580</v>
+      <c r="AA41" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="42">
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Z42" t="s">
-        <v>392</v>
+      <c r="AA42" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="43">
       <c r="H43" t="s">
         <v>566</v>
       </c>
-      <c r="Z43" t="s">
-        <v>121</v>
+      <c r="AA43" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
-        <v>122</v>
+      <c r="AA44" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" t="s">
-        <v>123</v>
+      <c r="AA45" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Z46" t="s">
-        <v>124</v>
+      <c r="AA46" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Z47" t="s">
-        <v>125</v>
+      <c r="AA47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Z48" t="s">
-        <v>126</v>
+      <c r="AA48" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Z49" t="s">
-        <v>438</v>
+      <c r="AA49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Z50" t="s">
-        <v>212</v>
+      <c r="AA50" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Z51" t="s">
-        <v>77</v>
+      <c r="AA51" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Z52" t="s">
-        <v>556</v>
+      <c r="AA52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Z53" t="s">
-        <v>127</v>
+      <c r="AA53" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Z54" t="s">
-        <v>128</v>
+      <c r="AA54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Z55" t="s">
-        <v>129</v>
+      <c r="AA55" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Z56" t="s">
-        <v>482</v>
+      <c r="AA56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Z57" t="s">
-        <v>463</v>
+      <c r="AA57" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Z58" t="s">
-        <v>130</v>
+      <c r="AA58" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
         <v>567</v>
       </c>
-      <c r="Z59" t="s">
-        <v>345</v>
+      <c r="AA59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Z60" t="s">
-        <v>464</v>
+      <c r="AA60" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Z61" t="s">
-        <v>131</v>
+      <c r="AA61" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Z62" t="s">
-        <v>132</v>
+      <c r="AA62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Z63" t="s">
-        <v>133</v>
+      <c r="AA63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Z64" t="s">
-        <v>134</v>
+      <c r="AA64" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Z65" t="s">
-        <v>135</v>
+      <c r="AA65" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Z66" t="s">
-        <v>136</v>
+      <c r="AA66" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Z67" t="s">
-        <v>137</v>
+      <c r="AA67" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Z68" t="s">
-        <v>439</v>
+      <c r="AA68" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Z69" t="s">
-        <v>472</v>
+      <c r="AA69" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Z70" t="s">
-        <v>213</v>
+      <c r="AA70" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
         <v>552</v>
       </c>
-      <c r="Z71" t="s">
-        <v>388</v>
+      <c r="AA71" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Z72" t="s">
-        <v>440</v>
+      <c r="AA72" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Z73" t="s">
-        <v>138</v>
+      <c r="AA73" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Z74" t="s">
-        <v>139</v>
+      <c r="AA74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Z75" t="s">
-        <v>140</v>
+      <c r="AA75" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Z76" t="s">
-        <v>141</v>
+      <c r="AA76" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="Z77" t="s">
-        <v>196</v>
+      <c r="AA77" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Z78" t="s">
-        <v>197</v>
+      <c r="AA78" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Z79" t="s">
-        <v>452</v>
+      <c r="AA79" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Z80" t="s">
-        <v>465</v>
+      <c r="AA80" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Z81" t="s">
-        <v>142</v>
+      <c r="AA81" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Z82" t="s">
-        <v>143</v>
+      <c r="AA82" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Z83" t="s">
-        <v>144</v>
+      <c r="AA83" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Z84" t="s">
-        <v>519</v>
+      <c r="AA84" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Z85" t="s">
-        <v>145</v>
+      <c r="AA85" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Z86" t="s">
-        <v>146</v>
+      <c r="AA86" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Z87" t="s">
-        <v>198</v>
+      <c r="AA87" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="Z88" t="s">
-        <v>483</v>
+      <c r="AA88" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Z89" t="s">
-        <v>589</v>
+      <c r="AA89" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Z90" t="s">
-        <v>199</v>
+      <c r="AA90" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Z91" t="s">
-        <v>453</v>
+      <c r="AA91" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Z92" t="s">
-        <v>200</v>
+      <c r="AA92" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Z93" t="s">
-        <v>201</v>
+      <c r="AA93" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Z94" t="s">
-        <v>574</v>
+      <c r="AA94" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Z95" t="s">
-        <v>575</v>
+      <c r="AA95" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Z96" t="s">
-        <v>214</v>
+      <c r="AA96" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Z97" t="s">
-        <v>147</v>
+      <c r="AA97" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AA110" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AA120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AA123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AA130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AA142" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>169</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$42</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -38,23 +38,24 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18949" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20731" uniqueCount="632">
   <si>
     <t>description</t>
   </si>
@@ -1906,6 +1907,75 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1983,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="555" x14ac:knownFonts="1">
+  <fonts count="603" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5424,8 +5494,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10799,8 +11172,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1023">
+  <borders count="1119">
     <border>
       <left/>
       <right/>
@@ -15454,6 +16286,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21181,7 +22991,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="629">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22894,52 +24704,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="924" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="924" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="927" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="927" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="930" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="930" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="933" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="933" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="939" borderId="1014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="939" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="930" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="930" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="942" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="942" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="942" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="942" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="945" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="951" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="954" fontId="557" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="957" fontId="558" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="960" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="561" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="966" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="957" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="969" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="969" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="978" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="981" fontId="573" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="984" fontId="574" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="987" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="577" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="993" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="984" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="996" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="996" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1005" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1008" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1011" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1014" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1020" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1011" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1023" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1023" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23264,7 +25218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23352,7 +25306,7 @@
         <v>396</v>
       </c>
       <c r="Z1" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -23432,7 +25386,7 @@
         <v>252</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>614</v>
       </c>
       <c r="U2" t="s">
         <v>397</v>
@@ -23450,7 +25404,7 @@
         <v>406</v>
       </c>
       <c r="Z2" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="AA2" t="s">
         <v>97</v>
@@ -23524,7 +25478,7 @@
         <v>239</v>
       </c>
       <c r="T3" t="s">
-        <v>217</v>
+        <v>615</v>
       </c>
       <c r="U3" t="s">
         <v>398</v>
@@ -23539,7 +25493,7 @@
         <v>407</v>
       </c>
       <c r="Z3" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="AA3" t="s">
         <v>98</v>
@@ -23610,7 +25564,7 @@
         <v>240</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U4" t="s">
         <v>399</v>
@@ -23625,7 +25579,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="AA4" t="s">
         <v>586</v>
@@ -23690,7 +25644,7 @@
         <v>241</v>
       </c>
       <c r="T5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U5" t="s">
         <v>400</v>
@@ -23700,9 +25654,6 @@
       </c>
       <c r="X5" t="s">
         <v>358</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>599</v>
       </c>
       <c r="AA5" t="s">
         <v>579</v>
@@ -23767,16 +25718,13 @@
         <v>242</v>
       </c>
       <c r="T6" t="s">
-        <v>390</v>
+        <v>218</v>
       </c>
       <c r="U6" t="s">
         <v>401</v>
       </c>
       <c r="X6" t="s">
         <v>360</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>600</v>
       </c>
       <c r="AA6" t="s">
         <v>99</v>
@@ -23832,7 +25780,7 @@
         <v>243</v>
       </c>
       <c r="T7" t="s">
-        <v>417</v>
+        <v>219</v>
       </c>
       <c r="U7" t="s">
         <v>402</v>
@@ -23893,6 +25841,9 @@
       <c r="S8" t="s">
         <v>244</v>
       </c>
+      <c r="T8" t="s">
+        <v>390</v>
+      </c>
       <c r="U8" t="s">
         <v>403</v>
       </c>
@@ -23949,6 +25900,9 @@
       <c r="S9" t="s">
         <v>245</v>
       </c>
+      <c r="T9" t="s">
+        <v>417</v>
+      </c>
       <c r="U9" t="s">
         <v>404</v>
       </c>
@@ -24070,7 +26024,7 @@
         <v>555</v>
       </c>
       <c r="O12" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -24107,6 +26061,9 @@
       <c r="N13" t="s">
         <v>435</v>
       </c>
+      <c r="O13" t="s">
+        <v>541</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -24184,7 +26141,7 @@
         <v>249</v>
       </c>
       <c r="AA15" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="AD15" t="s">
         <v>193</v>
@@ -24219,7 +26176,7 @@
         <v>250</v>
       </c>
       <c r="AA16" t="s">
-        <v>104</v>
+        <v>601</v>
       </c>
       <c r="AD16" t="s">
         <v>194</v>
@@ -24248,7 +26205,7 @@
         <v>251</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="AD17" t="s">
         <v>466</v>
@@ -24274,7 +26231,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>525</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>474</v>
@@ -24285,7 +26242,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>610</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -24294,7 +26251,7 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>105</v>
+        <v>525</v>
       </c>
       <c r="AF19" t="s">
         <v>517</v>
@@ -24305,7 +26262,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>611</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -24314,7 +26271,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF20" t="s">
         <v>518</v>
@@ -24325,7 +26282,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>612</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -24334,7 +26291,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s">
         <v>522</v>
@@ -24345,7 +26302,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>564</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -24354,7 +26311,7 @@
         <v>583</v>
       </c>
       <c r="AA22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF22" t="s">
         <v>234</v>
@@ -24365,7 +26322,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -24374,7 +26331,7 @@
         <v>469</v>
       </c>
       <c r="AA23" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="AF23" t="s">
         <v>560</v>
@@ -24385,7 +26342,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -24394,7 +26351,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>109</v>
+        <v>481</v>
       </c>
       <c r="AF24" t="s">
         <v>561</v>
@@ -24405,7 +26362,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>564</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -24414,7 +26371,7 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>569</v>
+        <v>109</v>
       </c>
       <c r="AF25" t="s">
         <v>562</v>
@@ -24422,10 +26379,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -24434,7 +26391,7 @@
         <v>547</v>
       </c>
       <c r="AA26" t="s">
-        <v>110</v>
+        <v>569</v>
       </c>
       <c r="AF26" t="s">
         <v>235</v>
@@ -24445,7 +26402,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -24454,7 +26411,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s">
         <v>236</v>
@@ -24465,7 +26422,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -24474,7 +26431,7 @@
         <v>433</v>
       </c>
       <c r="AA28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -24482,7 +26439,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -24491,7 +26448,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -24499,7 +26456,7 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -24508,7 +26465,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -24516,13 +26473,13 @@
         <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
       <c r="AA31" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
@@ -24530,114 +26487,123 @@
         <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>415</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
       </c>
       <c r="AA34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>570</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
-        <v>118</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
       <c r="AA39" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
       <c r="AA40" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
       <c r="AA42" t="s">
-        <v>580</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43">
@@ -24645,7 +26611,7 @@
         <v>566</v>
       </c>
       <c r="AA43" t="s">
-        <v>392</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44">
@@ -24653,7 +26619,7 @@
         <v>288</v>
       </c>
       <c r="AA44" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -24661,7 +26627,7 @@
         <v>299</v>
       </c>
       <c r="AA45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -24669,7 +26635,7 @@
         <v>300</v>
       </c>
       <c r="AA46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -24677,7 +26643,7 @@
         <v>342</v>
       </c>
       <c r="AA47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -24685,7 +26651,7 @@
         <v>341</v>
       </c>
       <c r="AA48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -24693,7 +26659,7 @@
         <v>210</v>
       </c>
       <c r="AA49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -24701,7 +26667,7 @@
         <v>319</v>
       </c>
       <c r="AA50" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -24709,7 +26675,7 @@
         <v>338</v>
       </c>
       <c r="AA51" t="s">
-        <v>212</v>
+        <v>620</v>
       </c>
     </row>
     <row r="52">
@@ -24717,7 +26683,7 @@
         <v>367</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
@@ -24725,7 +26691,7 @@
         <v>301</v>
       </c>
       <c r="AA53" t="s">
-        <v>556</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -24733,7 +26699,7 @@
         <v>355</v>
       </c>
       <c r="AA54" t="s">
-        <v>127</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55">
@@ -24741,7 +26707,7 @@
         <v>330</v>
       </c>
       <c r="AA55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -24749,7 +26715,7 @@
         <v>267</v>
       </c>
       <c r="AA56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -24757,7 +26723,7 @@
         <v>291</v>
       </c>
       <c r="AA57" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -24765,7 +26731,7 @@
         <v>292</v>
       </c>
       <c r="AA58" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59">
@@ -24773,7 +26739,7 @@
         <v>567</v>
       </c>
       <c r="AA59" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
@@ -24781,7 +26747,7 @@
         <v>293</v>
       </c>
       <c r="AA60" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -24789,7 +26755,7 @@
         <v>302</v>
       </c>
       <c r="AA61" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62">
@@ -24797,7 +26763,7 @@
         <v>311</v>
       </c>
       <c r="AA62" t="s">
-        <v>131</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63">
@@ -24805,7 +26771,7 @@
         <v>336</v>
       </c>
       <c r="AA63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -24813,7 +26779,7 @@
         <v>308</v>
       </c>
       <c r="AA64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -24821,7 +26787,7 @@
         <v>309</v>
       </c>
       <c r="AA65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -24829,7 +26795,7 @@
         <v>368</v>
       </c>
       <c r="AA66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -24837,7 +26803,7 @@
         <v>369</v>
       </c>
       <c r="AA67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -24845,7 +26811,7 @@
         <v>344</v>
       </c>
       <c r="AA68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -24853,7 +26819,7 @@
         <v>312</v>
       </c>
       <c r="AA69" t="s">
-        <v>439</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
@@ -24861,7 +26827,7 @@
         <v>268</v>
       </c>
       <c r="AA70" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -24869,7 +26835,7 @@
         <v>552</v>
       </c>
       <c r="AA71" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72">
@@ -24877,7 +26843,7 @@
         <v>313</v>
       </c>
       <c r="AA72" t="s">
-        <v>388</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73">
@@ -24885,7 +26851,7 @@
         <v>409</v>
       </c>
       <c r="AA73" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
@@ -24893,7 +26859,7 @@
         <v>303</v>
       </c>
       <c r="AA74" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75">
@@ -24901,7 +26867,7 @@
         <v>410</v>
       </c>
       <c r="AA75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -24909,7 +26875,7 @@
         <v>261</v>
       </c>
       <c r="AA76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -24917,7 +26883,7 @@
         <v>532</v>
       </c>
       <c r="AA77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -24925,7 +26891,7 @@
         <v>343</v>
       </c>
       <c r="AA78" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
@@ -24933,7 +26899,7 @@
         <v>279</v>
       </c>
       <c r="AA79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -24941,7 +26907,7 @@
         <v>285</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -24949,7 +26915,7 @@
         <v>290</v>
       </c>
       <c r="AA81" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -24957,7 +26923,7 @@
         <v>428</v>
       </c>
       <c r="AA82" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83">
@@ -24965,7 +26931,7 @@
         <v>331</v>
       </c>
       <c r="AA83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -24973,7 +26939,7 @@
         <v>269</v>
       </c>
       <c r="AA84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -24981,7 +26947,7 @@
         <v>280</v>
       </c>
       <c r="AA85" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
@@ -24989,7 +26955,7 @@
         <v>286</v>
       </c>
       <c r="AA86" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87">
@@ -24997,7 +26963,7 @@
         <v>275</v>
       </c>
       <c r="AA87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -25005,7 +26971,7 @@
         <v>553</v>
       </c>
       <c r="AA88" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
@@ -25013,7 +26979,7 @@
         <v>270</v>
       </c>
       <c r="AA89" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
@@ -25021,7 +26987,7 @@
         <v>287</v>
       </c>
       <c r="AA90" t="s">
-        <v>589</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91">
@@ -25029,7 +26995,7 @@
         <v>271</v>
       </c>
       <c r="AA91" t="s">
-        <v>199</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92">
@@ -25037,7 +27003,7 @@
         <v>272</v>
       </c>
       <c r="AA92" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -25045,7 +27011,7 @@
         <v>304</v>
       </c>
       <c r="AA93" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94">
@@ -25053,7 +27019,7 @@
         <v>310</v>
       </c>
       <c r="AA94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -25061,7 +27027,7 @@
         <v>294</v>
       </c>
       <c r="AA95" t="s">
-        <v>574</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
@@ -25069,7 +27035,7 @@
         <v>339</v>
       </c>
       <c r="AA96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97">
@@ -25077,7 +27043,7 @@
         <v>276</v>
       </c>
       <c r="AA97" t="s">
-        <v>214</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
@@ -25085,237 +27051,262 @@
         <v>277</v>
       </c>
       <c r="AA98" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>587</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>442</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>602</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>207</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>603</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>151</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>604</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>153</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>605</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>159</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>162</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>571</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>163</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>167</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AA146" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AA147" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AA148" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AA149" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -37,24 +37,24 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20731" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22009" uniqueCount="674">
   <si>
     <t>description</t>
   </si>
@@ -1976,6 +1976,132 @@
   </si>
   <si>
     <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +2109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="603" x14ac:knownFonts="1">
+  <fonts count="637" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5797,8 +5923,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1078">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11629,6 +11969,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -22991,7 +23603,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="629">
+  <cellXfs count="663">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24848,52 +25460,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="586" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="1005" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1005" fontId="587" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1008" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1008" fontId="589" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1011" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1011" fontId="590" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1014" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1014" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1020" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1020" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1011" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1011" fontId="596" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1023" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1023" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1023" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1023" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1026" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="601" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1035" fontId="605" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="606" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="609" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25218,7 +25932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25309,21 +26023,24 @@
         <v>609</v>
       </c>
       <c r="AA1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>413</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -25407,21 +26124,24 @@
         <v>616</v>
       </c>
       <c r="AA2" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB2" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>170</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>175</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>182</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -25496,21 +26216,24 @@
         <v>617</v>
       </c>
       <c r="AA3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB3" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>363</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>183</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -25582,21 +26305,24 @@
         <v>618</v>
       </c>
       <c r="AA4" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB4" t="s">
         <v>586</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>172</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>183</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25656,21 +26382,24 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB5" t="s">
         <v>579</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>173</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>607</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>184</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>424</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -25727,21 +26456,24 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB6" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>444</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>178</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>185</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>425</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -25789,21 +26521,24 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB7" t="s">
         <v>100</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>445</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>179</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>426</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -25851,21 +26586,24 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB8" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>174</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>180</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>427</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -25910,15 +26648,18 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>181</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>188</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -25954,15 +26695,18 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>608</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>189</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -25992,15 +26736,18 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>247</v>
+        <v>635</v>
       </c>
       <c r="AA11" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -26030,15 +26777,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA12" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB12" t="s">
         <v>102</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>190</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -26068,15 +26818,18 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="AA13" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>191</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -26103,15 +26856,18 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>595</v>
       </c>
       <c r="AA14" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB14" t="s">
         <v>103</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>192</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -26138,15 +26894,18 @@
         <v>523</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA15" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB15" t="s">
         <v>619</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>193</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -26173,15 +26932,18 @@
         <v>524</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA16" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB16" t="s">
         <v>601</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>194</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -26202,15 +26964,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB17" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>466</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -26230,10 +26995,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
       <c r="AA18" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26251,9 +27022,12 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB19" t="s">
         <v>525</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -26271,9 +27045,12 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB20" t="s">
         <v>105</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -26291,9 +27068,12 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB21" t="s">
         <v>106</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -26311,9 +27091,12 @@
         <v>583</v>
       </c>
       <c r="AA22" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB22" t="s">
         <v>107</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -26331,9 +27114,12 @@
         <v>469</v>
       </c>
       <c r="AA23" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB23" t="s">
         <v>108</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -26351,9 +27137,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB24" t="s">
         <v>481</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>561</v>
       </c>
     </row>
@@ -26362,7 +27151,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -26371,9 +27160,12 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB25" t="s">
         <v>109</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>562</v>
       </c>
     </row>
@@ -26382,243 +27174,294 @@
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="AA26" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB26" t="s">
         <v>569</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>590</v>
       </c>
       <c r="F27" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>547</v>
       </c>
       <c r="AA27" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB27" t="s">
         <v>110</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA29" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
       </c>
       <c r="AA34" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB36" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>566</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>633</v>
+      </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>392</v>
       </c>
     </row>
@@ -26626,7 +27469,7 @@
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -26634,7 +27477,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -26642,7 +27485,7 @@
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -26650,7 +27493,7 @@
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -26658,7 +27501,7 @@
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -26666,7 +27509,7 @@
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -26674,7 +27517,7 @@
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>620</v>
       </c>
     </row>
@@ -26682,7 +27525,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -26690,7 +27533,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26698,7 +27541,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>556</v>
       </c>
     </row>
@@ -26706,7 +27549,7 @@
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -26714,7 +27557,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -26722,7 +27565,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>129</v>
       </c>
     </row>
@@ -26730,7 +27573,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>482</v>
       </c>
     </row>
@@ -26738,7 +27581,7 @@
       <c r="H59" t="s">
         <v>567</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -26746,7 +27589,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -26754,7 +27597,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>345</v>
       </c>
     </row>
@@ -26762,7 +27605,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -26770,7 +27613,7 @@
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -26778,7 +27621,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -26786,7 +27629,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -26794,7 +27637,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -26802,7 +27645,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -26810,7 +27653,7 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -26818,7 +27661,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -26826,7 +27669,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -26834,7 +27677,7 @@
       <c r="H71" t="s">
         <v>552</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>472</v>
       </c>
     </row>
@@ -26842,7 +27685,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -26850,7 +27693,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -26858,7 +27701,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26866,7 +27709,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -26874,7 +27717,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -26882,7 +27725,7 @@
       <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -26890,7 +27733,7 @@
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -26898,414 +27741,424 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AA79" t="s">
-        <v>196</v>
+      <c r="AB79" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AA80" t="s">
-        <v>197</v>
+      <c r="AB80" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AA81" t="s">
-        <v>452</v>
+      <c r="AB81" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AA82" t="s">
-        <v>465</v>
+      <c r="AB82" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AA83" t="s">
-        <v>142</v>
+      <c r="AB83" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AA84" t="s">
-        <v>143</v>
+      <c r="AB84" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AA85" t="s">
-        <v>144</v>
+      <c r="AB85" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AA86" t="s">
-        <v>519</v>
+      <c r="AB86" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AA87" t="s">
-        <v>145</v>
+      <c r="AB87" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="AA88" t="s">
-        <v>146</v>
+      <c r="AB88" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AA89" t="s">
-        <v>198</v>
+      <c r="AB89" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AA90" t="s">
-        <v>483</v>
+      <c r="AB90" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AA91" t="s">
-        <v>589</v>
+      <c r="AB91" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AA92" t="s">
-        <v>199</v>
+      <c r="AB92" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AA93" t="s">
-        <v>453</v>
+      <c r="AB93" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AA94" t="s">
-        <v>200</v>
+      <c r="AB94" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AA95" t="s">
-        <v>201</v>
+      <c r="AB95" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AA96" t="s">
-        <v>574</v>
+      <c r="AB96" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AA97" t="s">
-        <v>575</v>
+      <c r="AB97" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>581</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AB144" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AB148" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AB149" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AB150" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AB151" t="s">
         <v>630</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -44,13 +44,13 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22009" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22611" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2102,6 +2102,12 @@
   </si>
   <si>
     <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="637" x14ac:knownFonts="1">
+  <fonts count="654" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6137,8 +6143,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1078">
+  <fills count="1102">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11969,6 +12082,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -23603,7 +23852,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="663">
+  <cellXfs count="680">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25559,55 +25808,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1050" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="622" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="623" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="625" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="626" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="633" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25932,7 +26232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26023,24 +26323,21 @@
         <v>609</v>
       </c>
       <c r="AA1" t="s">
-        <v>590</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="AF1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -26073,7 +26370,7 @@
         <v>449</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>675</v>
       </c>
       <c r="K2" t="s">
         <v>593</v>
@@ -26124,24 +26421,21 @@
         <v>616</v>
       </c>
       <c r="AA2" t="s">
-        <v>636</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AF2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AG2" t="s">
         <v>514</v>
       </c>
     </row>
@@ -26171,7 +26465,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>348</v>
@@ -26216,24 +26510,21 @@
         <v>617</v>
       </c>
       <c r="AA3" t="s">
-        <v>637</v>
+        <v>98</v>
       </c>
       <c r="AB3" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AD3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AE3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AF3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -26260,7 +26551,7 @@
         <v>450</v>
       </c>
       <c r="J4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K4" t="s">
         <v>349</v>
@@ -26305,24 +26596,21 @@
         <v>618</v>
       </c>
       <c r="AA4" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="AB4" t="s">
-        <v>586</v>
+        <v>172</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AD4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AE4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AF4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -26349,7 +26637,7 @@
         <v>459</v>
       </c>
       <c r="J5" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="K5" t="s">
         <v>350</v>
@@ -26382,24 +26670,21 @@
         <v>358</v>
       </c>
       <c r="AA5" t="s">
-        <v>639</v>
+        <v>579</v>
       </c>
       <c r="AB5" t="s">
-        <v>579</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
-        <v>173</v>
+        <v>607</v>
       </c>
       <c r="AD5" t="s">
-        <v>607</v>
+        <v>184</v>
       </c>
       <c r="AE5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -26426,7 +26711,7 @@
         <v>447</v>
       </c>
       <c r="J6" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="K6" t="s">
         <v>594</v>
@@ -26456,24 +26741,21 @@
         <v>360</v>
       </c>
       <c r="AA6" t="s">
-        <v>640</v>
+        <v>99</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AC6" t="s">
-        <v>444</v>
+        <v>178</v>
       </c>
       <c r="AD6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AF6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -26493,6 +26775,9 @@
       <c r="I7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>584</v>
+      </c>
       <c r="K7" t="s">
         <v>347</v>
       </c>
@@ -26521,24 +26806,21 @@
         <v>359</v>
       </c>
       <c r="AA7" t="s">
-        <v>641</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="AC7" t="s">
-        <v>445</v>
+        <v>179</v>
       </c>
       <c r="AD7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AE7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AF7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG7" t="s">
         <v>557</v>
       </c>
     </row>
@@ -26586,24 +26868,21 @@
         <v>361</v>
       </c>
       <c r="AA8" t="s">
-        <v>642</v>
+        <v>101</v>
       </c>
       <c r="AB8" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AC8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AD8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AF8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -26648,18 +26927,15 @@
         <v>362</v>
       </c>
       <c r="AA9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB9" t="s">
         <v>208</v>
       </c>
+      <c r="AC9" t="s">
+        <v>181</v>
+      </c>
       <c r="AD9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE9" t="s">
         <v>188</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>559</v>
       </c>
     </row>
@@ -26695,18 +26971,15 @@
         <v>405</v>
       </c>
       <c r="AA10" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB10" t="s">
         <v>256</v>
       </c>
+      <c r="AC10" t="s">
+        <v>608</v>
+      </c>
       <c r="AD10" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE10" t="s">
         <v>189</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -26715,7 +26988,7 @@
         <v>346</v>
       </c>
       <c r="F11" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="H11" t="s">
         <v>351</v>
@@ -26739,15 +27012,12 @@
         <v>635</v>
       </c>
       <c r="AA11" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -26756,7 +27026,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>318</v>
+        <v>578</v>
       </c>
       <c r="H12" t="s">
         <v>273</v>
@@ -26780,15 +27050,12 @@
         <v>247</v>
       </c>
       <c r="AA12" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB12" t="s">
         <v>102</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>190</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -26797,7 +27064,7 @@
         <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
         <v>262</v>
@@ -26821,15 +27088,12 @@
         <v>248</v>
       </c>
       <c r="AA13" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>191</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -26838,7 +27102,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
         <v>315</v>
@@ -26859,15 +27123,12 @@
         <v>595</v>
       </c>
       <c r="AA14" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB14" t="s">
         <v>103</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>192</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -26876,7 +27137,7 @@
         <v>535</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>263</v>
@@ -26897,15 +27158,12 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB15" t="s">
         <v>619</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>193</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>516</v>
       </c>
     </row>
@@ -26914,7 +27172,7 @@
         <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>264</v>
@@ -26935,15 +27193,12 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB16" t="s">
         <v>601</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>194</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>520</v>
       </c>
     </row>
@@ -26952,7 +27207,7 @@
         <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" t="s">
         <v>316</v>
@@ -26967,15 +27222,12 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB17" t="s">
         <v>104</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>466</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>521</v>
       </c>
     </row>
@@ -26984,7 +27236,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -26999,12 +27251,9 @@
         <v>251</v>
       </c>
       <c r="AA18" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -27013,7 +27262,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -27022,12 +27271,9 @@
         <v>462</v>
       </c>
       <c r="AA19" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB19" t="s">
         <v>525</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>517</v>
       </c>
     </row>
@@ -27036,7 +27282,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -27045,12 +27291,9 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB20" t="s">
         <v>105</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>518</v>
       </c>
     </row>
@@ -27059,7 +27302,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -27068,12 +27311,9 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB21" t="s">
         <v>106</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -27082,7 +27322,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>612</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -27091,12 +27331,9 @@
         <v>583</v>
       </c>
       <c r="AA22" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB22" t="s">
         <v>107</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27105,7 +27342,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -27114,12 +27351,9 @@
         <v>469</v>
       </c>
       <c r="AA23" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB23" t="s">
         <v>108</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>560</v>
       </c>
     </row>
@@ -27128,7 +27362,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -27137,12 +27371,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB24" t="s">
         <v>481</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>561</v>
       </c>
     </row>
@@ -27151,7 +27382,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>632</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -27160,12 +27391,9 @@
         <v>391</v>
       </c>
       <c r="AA25" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB25" t="s">
         <v>109</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>562</v>
       </c>
     </row>
@@ -27174,7 +27402,7 @@
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -27183,21 +27411,18 @@
         <v>634</v>
       </c>
       <c r="AA26" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB26" t="s">
         <v>569</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>590</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -27206,21 +27431,18 @@
         <v>547</v>
       </c>
       <c r="AA27" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB27" t="s">
         <v>110</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -27229,18 +27451,15 @@
         <v>85</v>
       </c>
       <c r="AA28" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -27249,18 +27468,15 @@
         <v>433</v>
       </c>
       <c r="AA29" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>448</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -27269,18 +27485,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -27289,187 +27502,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>664</v>
-      </c>
-      <c r="AB32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
       <c r="F33" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H34" t="s">
         <v>531</v>
       </c>
       <c r="AA34" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB36" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
       </c>
       <c r="AA37" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
         <v>566</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>633</v>
+        <v>71</v>
       </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>633</v>
+      </c>
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -27477,7 +27666,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -27485,7 +27674,7 @@
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -27493,7 +27682,7 @@
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -27501,7 +27690,7 @@
       <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -27509,7 +27698,7 @@
       <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -27517,7 +27706,7 @@
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>620</v>
       </c>
     </row>
@@ -27525,7 +27714,7 @@
       <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -27533,7 +27722,7 @@
       <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27541,7 +27730,7 @@
       <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>556</v>
       </c>
     </row>
@@ -27549,7 +27738,7 @@
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27557,7 +27746,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -27565,7 +27754,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>129</v>
       </c>
     </row>
@@ -27573,7 +27762,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>482</v>
       </c>
     </row>
@@ -27581,7 +27770,7 @@
       <c r="H59" t="s">
         <v>567</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>463</v>
       </c>
     </row>
@@ -27589,7 +27778,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -27597,7 +27786,7 @@
       <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>345</v>
       </c>
     </row>
@@ -27605,7 +27794,7 @@
       <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>464</v>
       </c>
     </row>
@@ -27613,7 +27802,7 @@
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -27621,7 +27810,7 @@
       <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -27629,7 +27818,7 @@
       <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -27637,7 +27826,7 @@
       <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -27645,7 +27834,7 @@
       <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -27653,7 +27842,7 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -27661,7 +27850,7 @@
       <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -27669,7 +27858,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -27677,7 +27866,7 @@
       <c r="H71" t="s">
         <v>552</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>472</v>
       </c>
     </row>
@@ -27685,7 +27874,7 @@
       <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -27693,7 +27882,7 @@
       <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>388</v>
       </c>
     </row>
@@ -27701,7 +27890,7 @@
       <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -27709,7 +27898,7 @@
       <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -27717,7 +27906,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -27725,7 +27914,7 @@
       <c r="H77" t="s">
         <v>532</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -27733,7 +27922,7 @@
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>141</v>
       </c>
     </row>
@@ -27741,7 +27930,7 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>671</v>
       </c>
     </row>
@@ -27749,7 +27938,7 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>196</v>
       </c>
     </row>
@@ -27757,7 +27946,7 @@
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>197</v>
       </c>
     </row>
@@ -27765,7 +27954,7 @@
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>452</v>
       </c>
     </row>
@@ -27773,7 +27962,7 @@
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>465</v>
       </c>
     </row>
@@ -27781,7 +27970,7 @@
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>142</v>
       </c>
     </row>
@@ -27789,7 +27978,7 @@
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>143</v>
       </c>
     </row>
@@ -27797,7 +27986,7 @@
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -27805,7 +27994,7 @@
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>519</v>
       </c>
     </row>
@@ -27813,7 +28002,7 @@
       <c r="H88" t="s">
         <v>553</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>145</v>
       </c>
     </row>
@@ -27821,7 +28010,7 @@
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>146</v>
       </c>
     </row>
@@ -27829,7 +28018,7 @@
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -27837,7 +28026,7 @@
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>483</v>
       </c>
     </row>
@@ -27845,7 +28034,7 @@
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>589</v>
       </c>
     </row>
@@ -27853,7 +28042,7 @@
       <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -27861,7 +28050,7 @@
       <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>453</v>
       </c>
     </row>
@@ -27869,7 +28058,7 @@
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>200</v>
       </c>
     </row>
@@ -27877,7 +28066,7 @@
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -27885,7 +28074,7 @@
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>574</v>
       </c>
     </row>
@@ -27893,272 +28082,272 @@
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>630</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22611" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23213" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2115,7 +2115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="654" x14ac:knownFonts="1">
+  <fonts count="671" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6250,8 +6250,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1102">
+  <fills count="1126">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12082,6 +12189,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -23852,7 +24095,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="680">
+  <cellXfs count="697">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25859,55 +26102,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="639" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="640" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="643" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="646" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/sqs-showcase.xlsx
@@ -28,16 +28,16 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23213" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23822" uniqueCount="683">
   <si>
     <t>description</t>
   </si>
@@ -2108,6 +2108,27 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="671" x14ac:knownFonts="1">
+  <fonts count="688" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6357,8 +6378,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1126">
+  <fills count="1150">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12189,6 +12317,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -24095,7 +24359,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="697">
+  <cellXfs count="714">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26153,55 +26417,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="656" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="660" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="662" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="670" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1131" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26685,7 +27000,7 @@
         <v>478</v>
       </c>
       <c r="Q2" t="s">
-        <v>416</v>
+        <v>677</v>
       </c>
       <c r="R2" t="s">
         <v>429</v>
@@ -26779,6 +27094,9 @@
       <c r="P3" t="s">
         <v>479</v>
       </c>
+      <c r="Q3" t="s">
+        <v>678</v>
+      </c>
       <c r="R3" t="s">
         <v>430</v>
       </c>
@@ -26865,6 +27183,9 @@
       <c r="P4" t="s">
         <v>480</v>
       </c>
+      <c r="Q4" t="s">
+        <v>416</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -26945,6 +27266,9 @@
       <c r="O5" t="s">
         <v>548</v>
       </c>
+      <c r="Q5" t="s">
+        <v>679</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -27076,7 +27400,7 @@
         <v>347</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>676</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -27138,7 +27462,7 @@
         <v>554</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -27197,7 +27521,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -27247,7 +27571,7 @@
         <v>591</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -27291,7 +27615,7 @@
         <v>592</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
         <v>470</v>
@@ -27329,7 +27653,7 @@
         <v>451</v>
       </c>
       <c r="L12" t="s">
-        <v>529</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>555</v>
@@ -27367,7 +27691,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>389</v>
+        <v>529</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -27379,7 +27703,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>248</v>
+        <v>680</v>
       </c>
       <c r="AA13" t="s">
         <v>325</v>
@@ -27405,7 +27729,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
@@ -27414,7 +27738,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>595</v>
+        <v>248</v>
       </c>
       <c r="AA14" t="s">
         <v>103</v>
@@ -27440,7 +27764,7 @@
         <v>323</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -27449,7 +27773,7 @@
         <v>523</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>595</v>
       </c>
       <c r="AA15" t="s">
         <v>619</v>
@@ -27475,7 +27799,7 @@
         <v>324</v>
       </c>
       <c r="L16" t="s">
-        <v>530</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>568</v>
@@ -27484,7 +27808,7 @@
         <v>524</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA16" t="s">
         <v>601</v>
@@ -27507,13 +27831,13 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
         <v>104</v>
@@ -27536,13 +27860,13 @@
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -27562,7 +27886,10 @@
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>462</v>
+        <v>82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>681</v>
       </c>
       <c r="AA19" t="s">
         <v>525</v>
@@ -27582,7 +27909,10 @@
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>462</v>
+      </c>
+      <c r="S20" t="s">
+        <v>251</v>
       </c>
       <c r="AA20" t="s">
         <v>105</v>
@@ -27602,7 +27932,10 @@
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>682</v>
       </c>
       <c r="AA21" t="s">
         <v>106</v>
@@ -27622,7 +27955,7 @@
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>583</v>
+        <v>84</v>
       </c>
       <c r="AA22" t="s">
         <v>107</v>
@@ -27642,7 +27975,7 @@
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>469</v>
+        <v>583</v>
       </c>
       <c r="AA23" t="s">
         <v>108</v>
@@ -27662,7 +27995,7 @@
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="AA24" t="s">
         <v>481</v>
@@ -27682,7 +28015,7 @@
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>109</v>
@@ -27702,7 +28035,7 @@
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>634</v>
+        <v>391</v>
       </c>
       <c r="AA26" t="s">
         <v>569</v>
@@ -27722,7 +28055,7 @@
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="AA27" t="s">
         <v>110</v>
@@ -27742,7 +28075,7 @@
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>547</v>
       </c>
       <c r="AA28" t="s">
         <v>111</v>
@@ -27759,7 +28092,7 @@
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="s">
         <v>112</v>
@@ -27776,7 +28109,7 @@
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="AA30" t="s">
         <v>113</v>
@@ -27793,7 +28126,7 @@
         <v>215</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>326</v>
@@ -27808,6 +28141,9 @@
       </c>
       <c r="H32" t="s">
         <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>114</v>
